--- a/Excel_files/ngo_list.xlsx
+++ b/Excel_files/ngo_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
   <si>
     <t>Organization_name</t>
   </si>
@@ -19,9 +19,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -34,12 +31,6 @@
     <t>Diksha Foundation</t>
   </si>
   <si>
-    <t>+917385988075</t>
-  </si>
-  <si>
-    <t>dikshafoundation2012@gmail.com</t>
-  </si>
-  <si>
     <t>VIDHYAVIHAR COLONY RAILWAY GATE WARANALI ROAD VISHRAMBAG SANGLI</t>
   </si>
   <si>
@@ -52,9 +43,6 @@
     <t>Gram Vikas Bahuudeshiya Sanstha</t>
   </si>
   <si>
-    <t>+919421221103</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Laxmi Naryan Apt. Flat No. 5, Post - Wanlesswadi, Wanlsswadi, Sangli - 416414, Near Kripamayi Hospital Miraj </t>
   </si>
   <si>
@@ -64,9 +52,6 @@
     <t>Jagruti Mahila Vikas Sanstha</t>
   </si>
   <si>
-    <t>desaisangli@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">	B5Akshay Appartment,Chintamani Nagar,Sangli	</t>
   </si>
   <si>
@@ -76,63 +61,42 @@
     <t>Mother Teresa Medical Charitable Trust Kupwad</t>
   </si>
   <si>
-    <t>drsatishpatil123@gmail.com</t>
-  </si>
-  <si>
     <t>mother teresa medical charitable trust,kupwad. dist.sangli, tel.miraj, maharashtra.pin code-416425</t>
   </si>
   <si>
     <t>AADARSH MAGASWARGIY SEVABHAVI SANSTHA RANJANI</t>
   </si>
   <si>
-    <t>saledipak01@gmail.com</t>
-  </si>
-  <si>
     <t>APRANJANITAL-KAVATHE MAHANKALDIST-SANGLISTATE - MAHARASHTRAPIN-416411</t>
   </si>
   <si>
-    <t>Aadarsh shikshan sanstha</t>
-  </si>
-  <si>
-    <t>assdaund@gmail.com</t>
-  </si>
-  <si>
-    <t>JIJAMATA VIDYALAYA GOPALWADI ROAD AT AND POST GOPALWADI TALUKA DAUND DIST PUNE PIN CODE 413801</t>
+    <t>AADHAR FOUNDATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	335/2 A PRAGATI COLONY 100 FT ROAD VISHRAMBAG SANGLI</t>
+  </si>
+  <si>
+    <t>AADHAR MAGASVARGIYA MAHILA SANSTHA SOLAPUR</t>
+  </si>
+  <si>
+    <t>BLOCK NO 18, SIDDHESHWAR HOUSING SOCIETY, NORTH SADAR BAZAR, BEHIND CIVIL HOSPITAL, SOLAPUR</t>
+  </si>
+  <si>
+    <t>SOLAPUR</t>
+  </si>
+  <si>
+    <t>Global Vision NGO</t>
+  </si>
+  <si>
+    <t>020 4120 4729</t>
+  </si>
+  <si>
+    <t>Office No. 513/515, 5th Floor, Sterling Center, MG Road, Opp. Hotel Arora Tower, Camp, Pune, Maharashtra 411001</t>
   </si>
   <si>
     <t>PUNE</t>
   </si>
   <si>
-    <t>AADHAR FOUNDATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	aadharfoundation233@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 	335/2 A PRAGATI COLONY 100 FT ROAD VISHRAMBAG SANGLI</t>
-  </si>
-  <si>
-    <t>AADHAR MAGASVARGIYA MAHILA SANSTHA SOLAPUR</t>
-  </si>
-  <si>
-    <t>aadharsanstha@hotmail.com</t>
-  </si>
-  <si>
-    <t>BLOCK NO 18, SIDDHESHWAR HOUSING SOCIETY, NORTH SADAR BAZAR, BEHIND CIVIL HOSPITAL, SOLAPUR</t>
-  </si>
-  <si>
-    <t>SOLAPUR</t>
-  </si>
-  <si>
-    <t>Global Vision NGO</t>
-  </si>
-  <si>
-    <t>020 4120 4729</t>
-  </si>
-  <si>
-    <t>Office No. 513/515, 5th Floor, Sterling Center, MG Road, Opp. Hotel Arora Tower, Camp, Pune, Maharashtra 411001</t>
-  </si>
-  <si>
     <t>MASHAL NGO</t>
   </si>
   <si>
@@ -154,15 +118,6 @@
     <t>Charity</t>
   </si>
   <si>
-    <t>Deepastambha Charitable Trust</t>
-  </si>
-  <si>
-    <t>099707 04444</t>
-  </si>
-  <si>
-    <t>Lane in-front of Sonal Hall, Chinar Apartment , Jagannath Tarte Marga, Off, Karve Rd, Erandwane, Pune, Maharashtra 411004</t>
-  </si>
-  <si>
     <t>Goodwill India</t>
   </si>
   <si>
@@ -217,7 +172,7 @@
     <t xml:space="preserve"> Shop no 8Viswa Kamal Complex, behind Surya Electronics, Thermax Chowk, Pimpri-Chinchwad, Maharashtra 413507</t>
   </si>
   <si>
-    <t>PIMPRI-CHINCHWAD</t>
+    <t>Pune</t>
   </si>
   <si>
     <t>Helping Hand Foundation</t>
@@ -262,9 +217,6 @@
     <t>Mahalakshmi Samajik Vikas Sanstha</t>
   </si>
   <si>
-    <t>nilampatne@yahoo.com</t>
-  </si>
-  <si>
     <t>217/ D.B. Kadam Market near to S.T. Stand Satara.</t>
   </si>
   <si>
@@ -274,54 +226,36 @@
     <t>+912165258292</t>
   </si>
   <si>
-    <t>https://shrigondavalekarmaharaj.org/</t>
-  </si>
-  <si>
     <t>Solapur, Satara, Gondawale, Satara Pandharpur Road, Gondawale Budruk, Satara - 415540</t>
   </si>
   <si>
     <t>ABHINAV MANAVHITWADI SANSTHA SATARA</t>
   </si>
   <si>
-    <t>aarsd.org@gmail.com</t>
-  </si>
-  <si>
     <t>Plot no. 51 , Gurukrupa Housing Society, Shahunagar</t>
   </si>
   <si>
     <t>VIDYADEEP FOUNDATION</t>
   </si>
   <si>
-    <t>tatpuje@indiatimes.com</t>
-  </si>
-  <si>
     <t>F 6 Yashashri Appartments 80 A Yadogopal Peth Satara</t>
   </si>
   <si>
     <t>SHREE SAMARTH CHARITABLE TRUST</t>
   </si>
   <si>
-    <t>puranik_sachin2009@rediffmail.com</t>
-  </si>
-  <si>
     <t>19/2, Dattadigambar coloney, shahupuri, satara _ 415002</t>
   </si>
   <si>
     <t>PRAGATI MAHILA MANDAL</t>
   </si>
   <si>
-    <t>pisalb@gmail.com</t>
-  </si>
-  <si>
     <t>At-Post karhar Tal-jawlai Dist Satara maharastra pin-415514</t>
   </si>
   <si>
     <t>SHRI SAIPRASAD SARVAJANIK VIKAS SOCIETY</t>
   </si>
   <si>
-    <t>shrisaiprasad@yahoo.com</t>
-  </si>
-  <si>
     <t>c/o Sai English Medium School 183/10 Dattanagar, Pachagaon Tal Karvir Dist . Kolhapur (Behind S B I Jaragnagar) PIN 416 013</t>
   </si>
   <si>
@@ -331,64 +265,25 @@
     <t>0231-2366536</t>
   </si>
   <si>
-    <t>dr_anitavs@rediffmail.com</t>
-  </si>
-  <si>
     <t>Baburao Smriti, At- Sadoli Dumala, Post- Sawarde Dumala, Tal- Karveer, Dist- Kolhapur, PIN- 416001</t>
   </si>
   <si>
     <t>I FOR YOU FOUNDATION</t>
   </si>
   <si>
-    <t>ashishshinde26@yahoo.in</t>
-  </si>
-  <si>
     <t>flat no-8,yashwant park,near the rajhans printing press,nagala park,kolhapur416003</t>
   </si>
   <si>
-    <t>Spherule Foundation</t>
-  </si>
-  <si>
-    <t>+918888661569</t>
-  </si>
-  <si>
-    <t>contact@spherule.org</t>
-  </si>
-  <si>
-    <t>A1, 404, Lalwani Vastu, Sakore Nagar, Viman Nagar, Pune 411014</t>
-  </si>
-  <si>
     <t>Centre for Youth Development and Activities (CYDA)</t>
   </si>
   <si>
-    <t xml:space="preserve">+919673022822 </t>
-  </si>
-  <si>
-    <t>https://www.cydaindia.org.in/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manuski Center, C/0 Plot No 3, 247/14B, Deccan College Road, Yerawada, Pune, Maharashtra 411006 </t>
   </si>
   <si>
-    <t>Saad Pratishthan Pune Trust</t>
-  </si>
-  <si>
-    <t>+918888879012</t>
-  </si>
-  <si>
-    <t>http://saadngo.com/</t>
-  </si>
-  <si>
-    <t>Gat No. 974, Samarth Shrushti Society, Post, Kadam Wasti, Manjri, Haveli, Pune - 412307</t>
-  </si>
-  <si>
     <t>Akanksha Foundation</t>
   </si>
   <si>
     <t>+9120 66051380</t>
-  </si>
-  <si>
-    <t>reetika.singh@akanksha.org</t>
   </si>
   <si>
     <t xml:space="preserve">The Akanksha Foundation
@@ -398,9 +293,6 @@
   </si>
   <si>
     <t>Yuvagram</t>
-  </si>
-  <si>
-    <t>http://yuvagram2020.org/</t>
   </si>
   <si>
     <t>Satralkar Square, basement shop no. 6-7, Vijaynagar, Sangli – Miraj Rd, Vijaynagar, Sangli, Maharashtra 416415</t>
@@ -410,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -432,23 +324,12 @@
     </font>
     <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -478,31 +359,25 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -726,9 +601,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="50.29"/>
     <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="3" max="3" width="31.14"/>
-    <col customWidth="1" min="4" max="4" width="42.71"/>
-    <col customWidth="1" min="6" max="6" width="20.86"/>
+    <col customWidth="1" min="3" max="3" width="42.71"/>
+    <col customWidth="1" min="5" max="5" width="20.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -738,3588 +612,3447 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7.385988075E9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9.421221103E9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>9.822793333E9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>8.087324828E9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>9.657031695E9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>9.665323242E9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>9.604242322E9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>9.604242322E9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>9.823179704E9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9.823179704E9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.225471553E9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>82</v>
+      <c r="A24" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B24" s="3">
-        <v>9.225471553E9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>9.423033299E9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9.422038403E9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3">
-        <v>9.423033299E9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>91</v>
+        <v>9.860911665E9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="8">
-        <v>9.422038403E9</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9.881269708E9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3">
-        <v>9.860911665E9</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>97</v>
+        <v>9.92206669E9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="3">
-        <v>9.881269708E9</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>100</v>
+      <c r="A29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B30" s="3">
-        <v>9.92206669E9</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>103</v>
+        <v>9.762792304E9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="4">
+        <v>9.673022822E9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="3">
-        <v>9.762792304E9</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>110</v>
+      <c r="A32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
+      </c>
+      <c r="B33" s="3">
+        <v>9.92249523E9</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="3">
-        <v>9.92249523E9</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38">
-      <c r="D38" s="13"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39">
-      <c r="D39" s="13"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40">
-      <c r="D40" s="13"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41">
-      <c r="D41" s="13"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42">
-      <c r="D42" s="13"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43">
-      <c r="D43" s="13"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44">
-      <c r="D44" s="13"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45">
-      <c r="D45" s="13"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46">
-      <c r="D46" s="13"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47">
-      <c r="D47" s="13"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48">
-      <c r="D48" s="13"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49">
-      <c r="D49" s="13"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50">
-      <c r="D50" s="13"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51">
-      <c r="D51" s="13"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52">
-      <c r="D52" s="13"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53">
-      <c r="D53" s="13"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54">
-      <c r="D54" s="13"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55">
-      <c r="D55" s="13"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56">
-      <c r="D56" s="13"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57">
-      <c r="D57" s="13"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58">
-      <c r="D58" s="13"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59">
-      <c r="D59" s="13"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60">
-      <c r="D60" s="13"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61">
-      <c r="D61" s="13"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62">
-      <c r="D62" s="13"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63">
-      <c r="D63" s="13"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64">
-      <c r="D64" s="13"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65">
-      <c r="D65" s="13"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66">
-      <c r="D66" s="13"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="67">
-      <c r="D67" s="13"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68">
-      <c r="D68" s="13"/>
+      <c r="C68" s="11"/>
     </row>
     <row r="69">
-      <c r="D69" s="13"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70">
-      <c r="D70" s="13"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71">
-      <c r="D71" s="13"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72">
-      <c r="D72" s="13"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73">
-      <c r="D73" s="13"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74">
-      <c r="D74" s="13"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75">
-      <c r="D75" s="13"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76">
-      <c r="D76" s="13"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77">
-      <c r="D77" s="13"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78">
-      <c r="D78" s="13"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79">
-      <c r="D79" s="13"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80">
-      <c r="D80" s="13"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81">
-      <c r="D81" s="13"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82">
-      <c r="D82" s="13"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83">
-      <c r="D83" s="13"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84">
-      <c r="D84" s="13"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85">
-      <c r="D85" s="13"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86">
-      <c r="D86" s="13"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87">
-      <c r="D87" s="13"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88">
-      <c r="D88" s="13"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89">
-      <c r="D89" s="13"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90">
-      <c r="D90" s="13"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91">
-      <c r="D91" s="13"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92">
-      <c r="D92" s="13"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93">
-      <c r="D93" s="13"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94">
-      <c r="D94" s="13"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95">
-      <c r="D95" s="13"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96">
-      <c r="D96" s="13"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97">
-      <c r="D97" s="13"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98">
-      <c r="D98" s="13"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99">
-      <c r="D99" s="13"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100">
-      <c r="D100" s="13"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101">
-      <c r="D101" s="13"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="102">
-      <c r="D102" s="13"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103">
-      <c r="D103" s="13"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104">
-      <c r="D104" s="13"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105">
-      <c r="D105" s="13"/>
+      <c r="C105" s="11"/>
     </row>
     <row r="106">
-      <c r="D106" s="13"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107">
-      <c r="D107" s="13"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108">
-      <c r="D108" s="13"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109">
-      <c r="D109" s="13"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110">
-      <c r="D110" s="13"/>
+      <c r="C110" s="11"/>
     </row>
     <row r="111">
-      <c r="D111" s="13"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112">
-      <c r="D112" s="13"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113">
-      <c r="D113" s="13"/>
+      <c r="C113" s="11"/>
     </row>
     <row r="114">
-      <c r="D114" s="13"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115">
-      <c r="D115" s="13"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116">
-      <c r="D116" s="13"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117">
-      <c r="D117" s="13"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118">
-      <c r="D118" s="13"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119">
-      <c r="D119" s="13"/>
+      <c r="C119" s="11"/>
     </row>
     <row r="120">
-      <c r="D120" s="13"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121">
-      <c r="D121" s="13"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122">
-      <c r="D122" s="13"/>
+      <c r="C122" s="11"/>
     </row>
     <row r="123">
-      <c r="D123" s="13"/>
+      <c r="C123" s="11"/>
     </row>
     <row r="124">
-      <c r="D124" s="13"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125">
-      <c r="D125" s="13"/>
+      <c r="C125" s="11"/>
     </row>
     <row r="126">
-      <c r="D126" s="13"/>
+      <c r="C126" s="11"/>
     </row>
     <row r="127">
-      <c r="D127" s="13"/>
+      <c r="C127" s="11"/>
     </row>
     <row r="128">
-      <c r="D128" s="13"/>
+      <c r="C128" s="11"/>
     </row>
     <row r="129">
-      <c r="D129" s="13"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130">
-      <c r="D130" s="13"/>
+      <c r="C130" s="11"/>
     </row>
     <row r="131">
-      <c r="D131" s="13"/>
+      <c r="C131" s="11"/>
     </row>
     <row r="132">
-      <c r="D132" s="13"/>
+      <c r="C132" s="11"/>
     </row>
     <row r="133">
-      <c r="D133" s="13"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134">
-      <c r="D134" s="13"/>
+      <c r="C134" s="11"/>
     </row>
     <row r="135">
-      <c r="D135" s="13"/>
+      <c r="C135" s="11"/>
     </row>
     <row r="136">
-      <c r="D136" s="13"/>
+      <c r="C136" s="11"/>
     </row>
     <row r="137">
-      <c r="D137" s="13"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138">
-      <c r="D138" s="13"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="139">
-      <c r="D139" s="13"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="140">
-      <c r="D140" s="13"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="141">
-      <c r="D141" s="13"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="142">
-      <c r="D142" s="13"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143">
-      <c r="D143" s="13"/>
+      <c r="C143" s="11"/>
     </row>
     <row r="144">
-      <c r="D144" s="13"/>
+      <c r="C144" s="11"/>
     </row>
     <row r="145">
-      <c r="D145" s="13"/>
+      <c r="C145" s="11"/>
     </row>
     <row r="146">
-      <c r="D146" s="13"/>
+      <c r="C146" s="11"/>
     </row>
     <row r="147">
-      <c r="D147" s="13"/>
+      <c r="C147" s="11"/>
     </row>
     <row r="148">
-      <c r="D148" s="13"/>
+      <c r="C148" s="11"/>
     </row>
     <row r="149">
-      <c r="D149" s="13"/>
+      <c r="C149" s="11"/>
     </row>
     <row r="150">
-      <c r="D150" s="13"/>
+      <c r="C150" s="11"/>
     </row>
     <row r="151">
-      <c r="D151" s="13"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152">
-      <c r="D152" s="13"/>
+      <c r="C152" s="11"/>
     </row>
     <row r="153">
-      <c r="D153" s="13"/>
+      <c r="C153" s="11"/>
     </row>
     <row r="154">
-      <c r="D154" s="13"/>
+      <c r="C154" s="11"/>
     </row>
     <row r="155">
-      <c r="D155" s="13"/>
+      <c r="C155" s="11"/>
     </row>
     <row r="156">
-      <c r="D156" s="13"/>
+      <c r="C156" s="11"/>
     </row>
     <row r="157">
-      <c r="D157" s="13"/>
+      <c r="C157" s="11"/>
     </row>
     <row r="158">
-      <c r="D158" s="13"/>
+      <c r="C158" s="11"/>
     </row>
     <row r="159">
-      <c r="D159" s="13"/>
+      <c r="C159" s="11"/>
     </row>
     <row r="160">
-      <c r="D160" s="13"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161">
-      <c r="D161" s="13"/>
+      <c r="C161" s="11"/>
     </row>
     <row r="162">
-      <c r="D162" s="13"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163">
-      <c r="D163" s="13"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164">
-      <c r="D164" s="13"/>
+      <c r="C164" s="11"/>
     </row>
     <row r="165">
-      <c r="D165" s="13"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166">
-      <c r="D166" s="13"/>
+      <c r="C166" s="11"/>
     </row>
     <row r="167">
-      <c r="D167" s="13"/>
+      <c r="C167" s="11"/>
     </row>
     <row r="168">
-      <c r="D168" s="13"/>
+      <c r="C168" s="11"/>
     </row>
     <row r="169">
-      <c r="D169" s="13"/>
+      <c r="C169" s="11"/>
     </row>
     <row r="170">
-      <c r="D170" s="13"/>
+      <c r="C170" s="11"/>
     </row>
     <row r="171">
-      <c r="D171" s="13"/>
+      <c r="C171" s="11"/>
     </row>
     <row r="172">
-      <c r="D172" s="13"/>
+      <c r="C172" s="11"/>
     </row>
     <row r="173">
-      <c r="D173" s="13"/>
+      <c r="C173" s="11"/>
     </row>
     <row r="174">
-      <c r="D174" s="13"/>
+      <c r="C174" s="11"/>
     </row>
     <row r="175">
-      <c r="D175" s="13"/>
+      <c r="C175" s="11"/>
     </row>
     <row r="176">
-      <c r="D176" s="13"/>
+      <c r="C176" s="11"/>
     </row>
     <row r="177">
-      <c r="D177" s="13"/>
+      <c r="C177" s="11"/>
     </row>
     <row r="178">
-      <c r="D178" s="13"/>
+      <c r="C178" s="11"/>
     </row>
     <row r="179">
-      <c r="D179" s="13"/>
+      <c r="C179" s="11"/>
     </row>
     <row r="180">
-      <c r="D180" s="13"/>
+      <c r="C180" s="11"/>
     </row>
     <row r="181">
-      <c r="D181" s="13"/>
+      <c r="C181" s="11"/>
     </row>
     <row r="182">
-      <c r="D182" s="13"/>
+      <c r="C182" s="11"/>
     </row>
     <row r="183">
-      <c r="D183" s="13"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184">
-      <c r="D184" s="13"/>
+      <c r="C184" s="11"/>
     </row>
     <row r="185">
-      <c r="D185" s="13"/>
+      <c r="C185" s="11"/>
     </row>
     <row r="186">
-      <c r="D186" s="13"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187">
-      <c r="D187" s="13"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188">
-      <c r="D188" s="13"/>
+      <c r="C188" s="11"/>
     </row>
     <row r="189">
-      <c r="D189" s="13"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190">
-      <c r="D190" s="13"/>
+      <c r="C190" s="11"/>
     </row>
     <row r="191">
-      <c r="D191" s="13"/>
+      <c r="C191" s="11"/>
     </row>
     <row r="192">
-      <c r="D192" s="13"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193">
-      <c r="D193" s="13"/>
+      <c r="C193" s="11"/>
     </row>
     <row r="194">
-      <c r="D194" s="13"/>
+      <c r="C194" s="11"/>
     </row>
     <row r="195">
-      <c r="D195" s="13"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="196">
-      <c r="D196" s="13"/>
+      <c r="C196" s="11"/>
     </row>
     <row r="197">
-      <c r="D197" s="13"/>
+      <c r="C197" s="11"/>
     </row>
     <row r="198">
-      <c r="D198" s="13"/>
+      <c r="C198" s="11"/>
     </row>
     <row r="199">
-      <c r="D199" s="13"/>
+      <c r="C199" s="11"/>
     </row>
     <row r="200">
-      <c r="D200" s="13"/>
+      <c r="C200" s="11"/>
     </row>
     <row r="201">
-      <c r="D201" s="13"/>
+      <c r="C201" s="11"/>
     </row>
     <row r="202">
-      <c r="D202" s="13"/>
+      <c r="C202" s="11"/>
     </row>
     <row r="203">
-      <c r="D203" s="13"/>
+      <c r="C203" s="11"/>
     </row>
     <row r="204">
-      <c r="D204" s="13"/>
+      <c r="C204" s="11"/>
     </row>
     <row r="205">
-      <c r="D205" s="13"/>
+      <c r="C205" s="11"/>
     </row>
     <row r="206">
-      <c r="D206" s="13"/>
+      <c r="C206" s="11"/>
     </row>
     <row r="207">
-      <c r="D207" s="13"/>
+      <c r="C207" s="11"/>
     </row>
     <row r="208">
-      <c r="D208" s="13"/>
+      <c r="C208" s="11"/>
     </row>
     <row r="209">
-      <c r="D209" s="13"/>
+      <c r="C209" s="11"/>
     </row>
     <row r="210">
-      <c r="D210" s="13"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="211">
-      <c r="D211" s="13"/>
+      <c r="C211" s="11"/>
     </row>
     <row r="212">
-      <c r="D212" s="13"/>
+      <c r="C212" s="11"/>
     </row>
     <row r="213">
-      <c r="D213" s="13"/>
+      <c r="C213" s="11"/>
     </row>
     <row r="214">
-      <c r="D214" s="13"/>
+      <c r="C214" s="11"/>
     </row>
     <row r="215">
-      <c r="D215" s="13"/>
+      <c r="C215" s="11"/>
     </row>
     <row r="216">
-      <c r="D216" s="13"/>
+      <c r="C216" s="11"/>
     </row>
     <row r="217">
-      <c r="D217" s="13"/>
+      <c r="C217" s="11"/>
     </row>
     <row r="218">
-      <c r="D218" s="13"/>
+      <c r="C218" s="11"/>
     </row>
     <row r="219">
-      <c r="D219" s="13"/>
+      <c r="C219" s="11"/>
     </row>
     <row r="220">
-      <c r="D220" s="13"/>
+      <c r="C220" s="11"/>
     </row>
     <row r="221">
-      <c r="D221" s="13"/>
+      <c r="C221" s="11"/>
     </row>
     <row r="222">
-      <c r="D222" s="13"/>
+      <c r="C222" s="11"/>
     </row>
     <row r="223">
-      <c r="D223" s="13"/>
+      <c r="C223" s="11"/>
     </row>
     <row r="224">
-      <c r="D224" s="13"/>
+      <c r="C224" s="11"/>
     </row>
     <row r="225">
-      <c r="D225" s="13"/>
+      <c r="C225" s="11"/>
     </row>
     <row r="226">
-      <c r="D226" s="13"/>
+      <c r="C226" s="11"/>
     </row>
     <row r="227">
-      <c r="D227" s="13"/>
+      <c r="C227" s="11"/>
     </row>
     <row r="228">
-      <c r="D228" s="13"/>
+      <c r="C228" s="11"/>
     </row>
     <row r="229">
-      <c r="D229" s="13"/>
+      <c r="C229" s="11"/>
     </row>
     <row r="230">
-      <c r="D230" s="13"/>
+      <c r="C230" s="11"/>
     </row>
     <row r="231">
-      <c r="D231" s="13"/>
+      <c r="C231" s="11"/>
     </row>
     <row r="232">
-      <c r="D232" s="13"/>
+      <c r="C232" s="11"/>
     </row>
     <row r="233">
-      <c r="D233" s="13"/>
+      <c r="C233" s="11"/>
     </row>
     <row r="234">
-      <c r="D234" s="13"/>
+      <c r="C234" s="11"/>
     </row>
     <row r="235">
-      <c r="D235" s="13"/>
+      <c r="C235" s="11"/>
     </row>
     <row r="236">
-      <c r="D236" s="13"/>
+      <c r="C236" s="11"/>
     </row>
     <row r="237">
-      <c r="D237" s="13"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238">
-      <c r="D238" s="13"/>
+      <c r="C238" s="11"/>
     </row>
     <row r="239">
-      <c r="D239" s="13"/>
+      <c r="C239" s="11"/>
     </row>
     <row r="240">
-      <c r="D240" s="13"/>
+      <c r="C240" s="11"/>
     </row>
     <row r="241">
-      <c r="D241" s="13"/>
+      <c r="C241" s="11"/>
     </row>
     <row r="242">
-      <c r="D242" s="13"/>
+      <c r="C242" s="11"/>
     </row>
     <row r="243">
-      <c r="D243" s="13"/>
+      <c r="C243" s="11"/>
     </row>
     <row r="244">
-      <c r="D244" s="13"/>
+      <c r="C244" s="11"/>
     </row>
     <row r="245">
-      <c r="D245" s="13"/>
+      <c r="C245" s="11"/>
     </row>
     <row r="246">
-      <c r="D246" s="13"/>
+      <c r="C246" s="11"/>
     </row>
     <row r="247">
-      <c r="D247" s="13"/>
+      <c r="C247" s="11"/>
     </row>
     <row r="248">
-      <c r="D248" s="13"/>
+      <c r="C248" s="11"/>
     </row>
     <row r="249">
-      <c r="D249" s="13"/>
+      <c r="C249" s="11"/>
     </row>
     <row r="250">
-      <c r="D250" s="13"/>
+      <c r="C250" s="11"/>
     </row>
     <row r="251">
-      <c r="D251" s="13"/>
+      <c r="C251" s="11"/>
     </row>
     <row r="252">
-      <c r="D252" s="13"/>
+      <c r="C252" s="11"/>
     </row>
     <row r="253">
-      <c r="D253" s="13"/>
+      <c r="C253" s="11"/>
     </row>
     <row r="254">
-      <c r="D254" s="13"/>
+      <c r="C254" s="11"/>
     </row>
     <row r="255">
-      <c r="D255" s="13"/>
+      <c r="C255" s="11"/>
     </row>
     <row r="256">
-      <c r="D256" s="13"/>
+      <c r="C256" s="11"/>
     </row>
     <row r="257">
-      <c r="D257" s="13"/>
+      <c r="C257" s="11"/>
     </row>
     <row r="258">
-      <c r="D258" s="13"/>
+      <c r="C258" s="11"/>
     </row>
     <row r="259">
-      <c r="D259" s="13"/>
+      <c r="C259" s="11"/>
     </row>
     <row r="260">
-      <c r="D260" s="13"/>
+      <c r="C260" s="11"/>
     </row>
     <row r="261">
-      <c r="D261" s="13"/>
+      <c r="C261" s="11"/>
     </row>
     <row r="262">
-      <c r="D262" s="13"/>
+      <c r="C262" s="11"/>
     </row>
     <row r="263">
-      <c r="D263" s="13"/>
+      <c r="C263" s="11"/>
     </row>
     <row r="264">
-      <c r="D264" s="13"/>
+      <c r="C264" s="11"/>
     </row>
     <row r="265">
-      <c r="D265" s="13"/>
+      <c r="C265" s="11"/>
     </row>
     <row r="266">
-      <c r="D266" s="13"/>
+      <c r="C266" s="11"/>
     </row>
     <row r="267">
-      <c r="D267" s="13"/>
+      <c r="C267" s="11"/>
     </row>
     <row r="268">
-      <c r="D268" s="13"/>
+      <c r="C268" s="11"/>
     </row>
     <row r="269">
-      <c r="D269" s="13"/>
+      <c r="C269" s="11"/>
     </row>
     <row r="270">
-      <c r="D270" s="13"/>
+      <c r="C270" s="11"/>
     </row>
     <row r="271">
-      <c r="D271" s="13"/>
+      <c r="C271" s="11"/>
     </row>
     <row r="272">
-      <c r="D272" s="13"/>
+      <c r="C272" s="11"/>
     </row>
     <row r="273">
-      <c r="D273" s="13"/>
+      <c r="C273" s="11"/>
     </row>
     <row r="274">
-      <c r="D274" s="13"/>
+      <c r="C274" s="11"/>
     </row>
     <row r="275">
-      <c r="D275" s="13"/>
+      <c r="C275" s="11"/>
     </row>
     <row r="276">
-      <c r="D276" s="13"/>
+      <c r="C276" s="11"/>
     </row>
     <row r="277">
-      <c r="D277" s="13"/>
+      <c r="C277" s="11"/>
     </row>
     <row r="278">
-      <c r="D278" s="13"/>
+      <c r="C278" s="11"/>
     </row>
     <row r="279">
-      <c r="D279" s="13"/>
+      <c r="C279" s="11"/>
     </row>
     <row r="280">
-      <c r="D280" s="13"/>
+      <c r="C280" s="11"/>
     </row>
     <row r="281">
-      <c r="D281" s="13"/>
+      <c r="C281" s="11"/>
     </row>
     <row r="282">
-      <c r="D282" s="13"/>
+      <c r="C282" s="11"/>
     </row>
     <row r="283">
-      <c r="D283" s="13"/>
+      <c r="C283" s="11"/>
     </row>
     <row r="284">
-      <c r="D284" s="13"/>
+      <c r="C284" s="11"/>
     </row>
     <row r="285">
-      <c r="D285" s="13"/>
+      <c r="C285" s="11"/>
     </row>
     <row r="286">
-      <c r="D286" s="13"/>
+      <c r="C286" s="11"/>
     </row>
     <row r="287">
-      <c r="D287" s="13"/>
+      <c r="C287" s="11"/>
     </row>
     <row r="288">
-      <c r="D288" s="13"/>
+      <c r="C288" s="11"/>
     </row>
     <row r="289">
-      <c r="D289" s="13"/>
+      <c r="C289" s="11"/>
     </row>
     <row r="290">
-      <c r="D290" s="13"/>
+      <c r="C290" s="11"/>
     </row>
     <row r="291">
-      <c r="D291" s="13"/>
+      <c r="C291" s="11"/>
     </row>
     <row r="292">
-      <c r="D292" s="13"/>
+      <c r="C292" s="11"/>
     </row>
     <row r="293">
-      <c r="D293" s="13"/>
+      <c r="C293" s="11"/>
     </row>
     <row r="294">
-      <c r="D294" s="13"/>
+      <c r="C294" s="11"/>
     </row>
     <row r="295">
-      <c r="D295" s="13"/>
+      <c r="C295" s="11"/>
     </row>
     <row r="296">
-      <c r="D296" s="13"/>
+      <c r="C296" s="11"/>
     </row>
     <row r="297">
-      <c r="D297" s="13"/>
+      <c r="C297" s="11"/>
     </row>
     <row r="298">
-      <c r="D298" s="13"/>
+      <c r="C298" s="11"/>
     </row>
     <row r="299">
-      <c r="D299" s="13"/>
+      <c r="C299" s="11"/>
     </row>
     <row r="300">
-      <c r="D300" s="13"/>
+      <c r="C300" s="11"/>
     </row>
     <row r="301">
-      <c r="D301" s="13"/>
+      <c r="C301" s="11"/>
     </row>
     <row r="302">
-      <c r="D302" s="13"/>
+      <c r="C302" s="11"/>
     </row>
     <row r="303">
-      <c r="D303" s="13"/>
+      <c r="C303" s="11"/>
     </row>
     <row r="304">
-      <c r="D304" s="13"/>
+      <c r="C304" s="11"/>
     </row>
     <row r="305">
-      <c r="D305" s="13"/>
+      <c r="C305" s="11"/>
     </row>
     <row r="306">
-      <c r="D306" s="13"/>
+      <c r="C306" s="11"/>
     </row>
     <row r="307">
-      <c r="D307" s="13"/>
+      <c r="C307" s="11"/>
     </row>
     <row r="308">
-      <c r="D308" s="13"/>
+      <c r="C308" s="11"/>
     </row>
     <row r="309">
-      <c r="D309" s="13"/>
+      <c r="C309" s="11"/>
     </row>
     <row r="310">
-      <c r="D310" s="13"/>
+      <c r="C310" s="11"/>
     </row>
     <row r="311">
-      <c r="D311" s="13"/>
+      <c r="C311" s="11"/>
     </row>
     <row r="312">
-      <c r="D312" s="13"/>
+      <c r="C312" s="11"/>
     </row>
     <row r="313">
-      <c r="D313" s="13"/>
+      <c r="C313" s="11"/>
     </row>
     <row r="314">
-      <c r="D314" s="13"/>
+      <c r="C314" s="11"/>
     </row>
     <row r="315">
-      <c r="D315" s="13"/>
+      <c r="C315" s="11"/>
     </row>
     <row r="316">
-      <c r="D316" s="13"/>
+      <c r="C316" s="11"/>
     </row>
     <row r="317">
-      <c r="D317" s="13"/>
+      <c r="C317" s="11"/>
     </row>
     <row r="318">
-      <c r="D318" s="13"/>
+      <c r="C318" s="11"/>
     </row>
     <row r="319">
-      <c r="D319" s="13"/>
+      <c r="C319" s="11"/>
     </row>
     <row r="320">
-      <c r="D320" s="13"/>
+      <c r="C320" s="11"/>
     </row>
     <row r="321">
-      <c r="D321" s="13"/>
+      <c r="C321" s="11"/>
     </row>
     <row r="322">
-      <c r="D322" s="13"/>
+      <c r="C322" s="11"/>
     </row>
     <row r="323">
-      <c r="D323" s="13"/>
+      <c r="C323" s="11"/>
     </row>
     <row r="324">
-      <c r="D324" s="13"/>
+      <c r="C324" s="11"/>
     </row>
     <row r="325">
-      <c r="D325" s="13"/>
+      <c r="C325" s="11"/>
     </row>
     <row r="326">
-      <c r="D326" s="13"/>
+      <c r="C326" s="11"/>
     </row>
     <row r="327">
-      <c r="D327" s="13"/>
+      <c r="C327" s="11"/>
     </row>
     <row r="328">
-      <c r="D328" s="13"/>
+      <c r="C328" s="11"/>
     </row>
     <row r="329">
-      <c r="D329" s="13"/>
+      <c r="C329" s="11"/>
     </row>
     <row r="330">
-      <c r="D330" s="13"/>
+      <c r="C330" s="11"/>
     </row>
     <row r="331">
-      <c r="D331" s="13"/>
+      <c r="C331" s="11"/>
     </row>
     <row r="332">
-      <c r="D332" s="13"/>
+      <c r="C332" s="11"/>
     </row>
     <row r="333">
-      <c r="D333" s="13"/>
+      <c r="C333" s="11"/>
     </row>
     <row r="334">
-      <c r="D334" s="13"/>
+      <c r="C334" s="11"/>
     </row>
     <row r="335">
-      <c r="D335" s="13"/>
+      <c r="C335" s="11"/>
     </row>
     <row r="336">
-      <c r="D336" s="13"/>
+      <c r="C336" s="11"/>
     </row>
     <row r="337">
-      <c r="D337" s="13"/>
+      <c r="C337" s="11"/>
     </row>
     <row r="338">
-      <c r="D338" s="13"/>
+      <c r="C338" s="11"/>
     </row>
     <row r="339">
-      <c r="D339" s="13"/>
+      <c r="C339" s="11"/>
     </row>
     <row r="340">
-      <c r="D340" s="13"/>
+      <c r="C340" s="11"/>
     </row>
     <row r="341">
-      <c r="D341" s="13"/>
+      <c r="C341" s="11"/>
     </row>
     <row r="342">
-      <c r="D342" s="13"/>
+      <c r="C342" s="11"/>
     </row>
     <row r="343">
-      <c r="D343" s="13"/>
+      <c r="C343" s="11"/>
     </row>
     <row r="344">
-      <c r="D344" s="13"/>
+      <c r="C344" s="11"/>
     </row>
     <row r="345">
-      <c r="D345" s="13"/>
+      <c r="C345" s="11"/>
     </row>
     <row r="346">
-      <c r="D346" s="13"/>
+      <c r="C346" s="11"/>
     </row>
     <row r="347">
-      <c r="D347" s="13"/>
+      <c r="C347" s="11"/>
     </row>
     <row r="348">
-      <c r="D348" s="13"/>
+      <c r="C348" s="11"/>
     </row>
     <row r="349">
-      <c r="D349" s="13"/>
+      <c r="C349" s="11"/>
     </row>
     <row r="350">
-      <c r="D350" s="13"/>
+      <c r="C350" s="11"/>
     </row>
     <row r="351">
-      <c r="D351" s="13"/>
+      <c r="C351" s="11"/>
     </row>
     <row r="352">
-      <c r="D352" s="13"/>
+      <c r="C352" s="11"/>
     </row>
     <row r="353">
-      <c r="D353" s="13"/>
+      <c r="C353" s="11"/>
     </row>
     <row r="354">
-      <c r="D354" s="13"/>
+      <c r="C354" s="11"/>
     </row>
     <row r="355">
-      <c r="D355" s="13"/>
+      <c r="C355" s="11"/>
     </row>
     <row r="356">
-      <c r="D356" s="13"/>
+      <c r="C356" s="11"/>
     </row>
     <row r="357">
-      <c r="D357" s="13"/>
+      <c r="C357" s="11"/>
     </row>
     <row r="358">
-      <c r="D358" s="13"/>
+      <c r="C358" s="11"/>
     </row>
     <row r="359">
-      <c r="D359" s="13"/>
+      <c r="C359" s="11"/>
     </row>
     <row r="360">
-      <c r="D360" s="13"/>
+      <c r="C360" s="11"/>
     </row>
     <row r="361">
-      <c r="D361" s="13"/>
+      <c r="C361" s="11"/>
     </row>
     <row r="362">
-      <c r="D362" s="13"/>
+      <c r="C362" s="11"/>
     </row>
     <row r="363">
-      <c r="D363" s="13"/>
+      <c r="C363" s="11"/>
     </row>
     <row r="364">
-      <c r="D364" s="13"/>
+      <c r="C364" s="11"/>
     </row>
     <row r="365">
-      <c r="D365" s="13"/>
+      <c r="C365" s="11"/>
     </row>
     <row r="366">
-      <c r="D366" s="13"/>
+      <c r="C366" s="11"/>
     </row>
     <row r="367">
-      <c r="D367" s="13"/>
+      <c r="C367" s="11"/>
     </row>
     <row r="368">
-      <c r="D368" s="13"/>
+      <c r="C368" s="11"/>
     </row>
     <row r="369">
-      <c r="D369" s="13"/>
+      <c r="C369" s="11"/>
     </row>
     <row r="370">
-      <c r="D370" s="13"/>
+      <c r="C370" s="11"/>
     </row>
     <row r="371">
-      <c r="D371" s="13"/>
+      <c r="C371" s="11"/>
     </row>
     <row r="372">
-      <c r="D372" s="13"/>
+      <c r="C372" s="11"/>
     </row>
     <row r="373">
-      <c r="D373" s="13"/>
+      <c r="C373" s="11"/>
     </row>
     <row r="374">
-      <c r="D374" s="13"/>
+      <c r="C374" s="11"/>
     </row>
     <row r="375">
-      <c r="D375" s="13"/>
+      <c r="C375" s="11"/>
     </row>
     <row r="376">
-      <c r="D376" s="13"/>
+      <c r="C376" s="11"/>
     </row>
     <row r="377">
-      <c r="D377" s="13"/>
+      <c r="C377" s="11"/>
     </row>
     <row r="378">
-      <c r="D378" s="13"/>
+      <c r="C378" s="11"/>
     </row>
     <row r="379">
-      <c r="D379" s="13"/>
+      <c r="C379" s="11"/>
     </row>
     <row r="380">
-      <c r="D380" s="13"/>
+      <c r="C380" s="11"/>
     </row>
     <row r="381">
-      <c r="D381" s="13"/>
+      <c r="C381" s="11"/>
     </row>
     <row r="382">
-      <c r="D382" s="13"/>
+      <c r="C382" s="11"/>
     </row>
     <row r="383">
-      <c r="D383" s="13"/>
+      <c r="C383" s="11"/>
     </row>
     <row r="384">
-      <c r="D384" s="13"/>
+      <c r="C384" s="11"/>
     </row>
     <row r="385">
-      <c r="D385" s="13"/>
+      <c r="C385" s="11"/>
     </row>
     <row r="386">
-      <c r="D386" s="13"/>
+      <c r="C386" s="11"/>
     </row>
     <row r="387">
-      <c r="D387" s="13"/>
+      <c r="C387" s="11"/>
     </row>
     <row r="388">
-      <c r="D388" s="13"/>
+      <c r="C388" s="11"/>
     </row>
     <row r="389">
-      <c r="D389" s="13"/>
+      <c r="C389" s="11"/>
     </row>
     <row r="390">
-      <c r="D390" s="13"/>
+      <c r="C390" s="11"/>
     </row>
     <row r="391">
-      <c r="D391" s="13"/>
+      <c r="C391" s="11"/>
     </row>
     <row r="392">
-      <c r="D392" s="13"/>
+      <c r="C392" s="11"/>
     </row>
     <row r="393">
-      <c r="D393" s="13"/>
+      <c r="C393" s="11"/>
     </row>
     <row r="394">
-      <c r="D394" s="13"/>
+      <c r="C394" s="11"/>
     </row>
     <row r="395">
-      <c r="D395" s="13"/>
+      <c r="C395" s="11"/>
     </row>
     <row r="396">
-      <c r="D396" s="13"/>
+      <c r="C396" s="11"/>
     </row>
     <row r="397">
-      <c r="D397" s="13"/>
+      <c r="C397" s="11"/>
     </row>
     <row r="398">
-      <c r="D398" s="13"/>
+      <c r="C398" s="11"/>
     </row>
     <row r="399">
-      <c r="D399" s="13"/>
+      <c r="C399" s="11"/>
     </row>
     <row r="400">
-      <c r="D400" s="13"/>
+      <c r="C400" s="11"/>
     </row>
     <row r="401">
-      <c r="D401" s="13"/>
+      <c r="C401" s="11"/>
     </row>
     <row r="402">
-      <c r="D402" s="13"/>
+      <c r="C402" s="11"/>
     </row>
     <row r="403">
-      <c r="D403" s="13"/>
+      <c r="C403" s="11"/>
     </row>
     <row r="404">
-      <c r="D404" s="13"/>
+      <c r="C404" s="11"/>
     </row>
     <row r="405">
-      <c r="D405" s="13"/>
+      <c r="C405" s="11"/>
     </row>
     <row r="406">
-      <c r="D406" s="13"/>
+      <c r="C406" s="11"/>
     </row>
     <row r="407">
-      <c r="D407" s="13"/>
+      <c r="C407" s="11"/>
     </row>
     <row r="408">
-      <c r="D408" s="13"/>
+      <c r="C408" s="11"/>
     </row>
     <row r="409">
-      <c r="D409" s="13"/>
+      <c r="C409" s="11"/>
     </row>
     <row r="410">
-      <c r="D410" s="13"/>
+      <c r="C410" s="11"/>
     </row>
     <row r="411">
-      <c r="D411" s="13"/>
+      <c r="C411" s="11"/>
     </row>
     <row r="412">
-      <c r="D412" s="13"/>
+      <c r="C412" s="11"/>
     </row>
     <row r="413">
-      <c r="D413" s="13"/>
+      <c r="C413" s="11"/>
     </row>
     <row r="414">
-      <c r="D414" s="13"/>
+      <c r="C414" s="11"/>
     </row>
     <row r="415">
-      <c r="D415" s="13"/>
+      <c r="C415" s="11"/>
     </row>
     <row r="416">
-      <c r="D416" s="13"/>
+      <c r="C416" s="11"/>
     </row>
     <row r="417">
-      <c r="D417" s="13"/>
+      <c r="C417" s="11"/>
     </row>
     <row r="418">
-      <c r="D418" s="13"/>
+      <c r="C418" s="11"/>
     </row>
     <row r="419">
-      <c r="D419" s="13"/>
+      <c r="C419" s="11"/>
     </row>
     <row r="420">
-      <c r="D420" s="13"/>
+      <c r="C420" s="11"/>
     </row>
     <row r="421">
-      <c r="D421" s="13"/>
+      <c r="C421" s="11"/>
     </row>
     <row r="422">
-      <c r="D422" s="13"/>
+      <c r="C422" s="11"/>
     </row>
     <row r="423">
-      <c r="D423" s="13"/>
+      <c r="C423" s="11"/>
     </row>
     <row r="424">
-      <c r="D424" s="13"/>
+      <c r="C424" s="11"/>
     </row>
     <row r="425">
-      <c r="D425" s="13"/>
+      <c r="C425" s="11"/>
     </row>
     <row r="426">
-      <c r="D426" s="13"/>
+      <c r="C426" s="11"/>
     </row>
     <row r="427">
-      <c r="D427" s="13"/>
+      <c r="C427" s="11"/>
     </row>
     <row r="428">
-      <c r="D428" s="13"/>
+      <c r="C428" s="11"/>
     </row>
     <row r="429">
-      <c r="D429" s="13"/>
+      <c r="C429" s="11"/>
     </row>
     <row r="430">
-      <c r="D430" s="13"/>
+      <c r="C430" s="11"/>
     </row>
     <row r="431">
-      <c r="D431" s="13"/>
+      <c r="C431" s="11"/>
     </row>
     <row r="432">
-      <c r="D432" s="13"/>
+      <c r="C432" s="11"/>
     </row>
     <row r="433">
-      <c r="D433" s="13"/>
+      <c r="C433" s="11"/>
     </row>
     <row r="434">
-      <c r="D434" s="13"/>
+      <c r="C434" s="11"/>
     </row>
     <row r="435">
-      <c r="D435" s="13"/>
+      <c r="C435" s="11"/>
     </row>
     <row r="436">
-      <c r="D436" s="13"/>
+      <c r="C436" s="11"/>
     </row>
     <row r="437">
-      <c r="D437" s="13"/>
+      <c r="C437" s="11"/>
     </row>
     <row r="438">
-      <c r="D438" s="13"/>
+      <c r="C438" s="11"/>
     </row>
     <row r="439">
-      <c r="D439" s="13"/>
+      <c r="C439" s="11"/>
     </row>
     <row r="440">
-      <c r="D440" s="13"/>
+      <c r="C440" s="11"/>
     </row>
     <row r="441">
-      <c r="D441" s="13"/>
+      <c r="C441" s="11"/>
     </row>
     <row r="442">
-      <c r="D442" s="13"/>
+      <c r="C442" s="11"/>
     </row>
     <row r="443">
-      <c r="D443" s="13"/>
+      <c r="C443" s="11"/>
     </row>
     <row r="444">
-      <c r="D444" s="13"/>
+      <c r="C444" s="11"/>
     </row>
     <row r="445">
-      <c r="D445" s="13"/>
+      <c r="C445" s="11"/>
     </row>
     <row r="446">
-      <c r="D446" s="13"/>
+      <c r="C446" s="11"/>
     </row>
     <row r="447">
-      <c r="D447" s="13"/>
+      <c r="C447" s="11"/>
     </row>
     <row r="448">
-      <c r="D448" s="13"/>
+      <c r="C448" s="11"/>
     </row>
     <row r="449">
-      <c r="D449" s="13"/>
+      <c r="C449" s="11"/>
     </row>
     <row r="450">
-      <c r="D450" s="13"/>
+      <c r="C450" s="11"/>
     </row>
     <row r="451">
-      <c r="D451" s="13"/>
+      <c r="C451" s="11"/>
     </row>
     <row r="452">
-      <c r="D452" s="13"/>
+      <c r="C452" s="11"/>
     </row>
     <row r="453">
-      <c r="D453" s="13"/>
+      <c r="C453" s="11"/>
     </row>
     <row r="454">
-      <c r="D454" s="13"/>
+      <c r="C454" s="11"/>
     </row>
     <row r="455">
-      <c r="D455" s="13"/>
+      <c r="C455" s="11"/>
     </row>
     <row r="456">
-      <c r="D456" s="13"/>
+      <c r="C456" s="11"/>
     </row>
     <row r="457">
-      <c r="D457" s="13"/>
+      <c r="C457" s="11"/>
     </row>
     <row r="458">
-      <c r="D458" s="13"/>
+      <c r="C458" s="11"/>
     </row>
     <row r="459">
-      <c r="D459" s="13"/>
+      <c r="C459" s="11"/>
     </row>
     <row r="460">
-      <c r="D460" s="13"/>
+      <c r="C460" s="11"/>
     </row>
     <row r="461">
-      <c r="D461" s="13"/>
+      <c r="C461" s="11"/>
     </row>
     <row r="462">
-      <c r="D462" s="13"/>
+      <c r="C462" s="11"/>
     </row>
     <row r="463">
-      <c r="D463" s="13"/>
+      <c r="C463" s="11"/>
     </row>
     <row r="464">
-      <c r="D464" s="13"/>
+      <c r="C464" s="11"/>
     </row>
     <row r="465">
-      <c r="D465" s="13"/>
+      <c r="C465" s="11"/>
     </row>
     <row r="466">
-      <c r="D466" s="13"/>
+      <c r="C466" s="11"/>
     </row>
     <row r="467">
-      <c r="D467" s="13"/>
+      <c r="C467" s="11"/>
     </row>
     <row r="468">
-      <c r="D468" s="13"/>
+      <c r="C468" s="11"/>
     </row>
     <row r="469">
-      <c r="D469" s="13"/>
+      <c r="C469" s="11"/>
     </row>
     <row r="470">
-      <c r="D470" s="13"/>
+      <c r="C470" s="11"/>
     </row>
     <row r="471">
-      <c r="D471" s="13"/>
+      <c r="C471" s="11"/>
     </row>
     <row r="472">
-      <c r="D472" s="13"/>
+      <c r="C472" s="11"/>
     </row>
     <row r="473">
-      <c r="D473" s="13"/>
+      <c r="C473" s="11"/>
     </row>
     <row r="474">
-      <c r="D474" s="13"/>
+      <c r="C474" s="11"/>
     </row>
     <row r="475">
-      <c r="D475" s="13"/>
+      <c r="C475" s="11"/>
     </row>
     <row r="476">
-      <c r="D476" s="13"/>
+      <c r="C476" s="11"/>
     </row>
     <row r="477">
-      <c r="D477" s="13"/>
+      <c r="C477" s="11"/>
     </row>
     <row r="478">
-      <c r="D478" s="13"/>
+      <c r="C478" s="11"/>
     </row>
     <row r="479">
-      <c r="D479" s="13"/>
+      <c r="C479" s="11"/>
     </row>
     <row r="480">
-      <c r="D480" s="13"/>
+      <c r="C480" s="11"/>
     </row>
     <row r="481">
-      <c r="D481" s="13"/>
+      <c r="C481" s="11"/>
     </row>
     <row r="482">
-      <c r="D482" s="13"/>
+      <c r="C482" s="11"/>
     </row>
     <row r="483">
-      <c r="D483" s="13"/>
+      <c r="C483" s="11"/>
     </row>
     <row r="484">
-      <c r="D484" s="13"/>
+      <c r="C484" s="11"/>
     </row>
     <row r="485">
-      <c r="D485" s="13"/>
+      <c r="C485" s="11"/>
     </row>
     <row r="486">
-      <c r="D486" s="13"/>
+      <c r="C486" s="11"/>
     </row>
     <row r="487">
-      <c r="D487" s="13"/>
+      <c r="C487" s="11"/>
     </row>
     <row r="488">
-      <c r="D488" s="13"/>
+      <c r="C488" s="11"/>
     </row>
     <row r="489">
-      <c r="D489" s="13"/>
+      <c r="C489" s="11"/>
     </row>
     <row r="490">
-      <c r="D490" s="13"/>
+      <c r="C490" s="11"/>
     </row>
     <row r="491">
-      <c r="D491" s="13"/>
+      <c r="C491" s="11"/>
     </row>
     <row r="492">
-      <c r="D492" s="13"/>
+      <c r="C492" s="11"/>
     </row>
     <row r="493">
-      <c r="D493" s="13"/>
+      <c r="C493" s="11"/>
     </row>
     <row r="494">
-      <c r="D494" s="13"/>
+      <c r="C494" s="11"/>
     </row>
     <row r="495">
-      <c r="D495" s="13"/>
+      <c r="C495" s="11"/>
     </row>
     <row r="496">
-      <c r="D496" s="13"/>
+      <c r="C496" s="11"/>
     </row>
     <row r="497">
-      <c r="D497" s="13"/>
+      <c r="C497" s="11"/>
     </row>
     <row r="498">
-      <c r="D498" s="13"/>
+      <c r="C498" s="11"/>
     </row>
     <row r="499">
-      <c r="D499" s="13"/>
+      <c r="C499" s="11"/>
     </row>
     <row r="500">
-      <c r="D500" s="13"/>
+      <c r="C500" s="11"/>
     </row>
     <row r="501">
-      <c r="D501" s="13"/>
+      <c r="C501" s="11"/>
     </row>
     <row r="502">
-      <c r="D502" s="13"/>
+      <c r="C502" s="11"/>
     </row>
     <row r="503">
-      <c r="D503" s="13"/>
+      <c r="C503" s="11"/>
     </row>
     <row r="504">
-      <c r="D504" s="13"/>
+      <c r="C504" s="11"/>
     </row>
     <row r="505">
-      <c r="D505" s="13"/>
+      <c r="C505" s="11"/>
     </row>
     <row r="506">
-      <c r="D506" s="13"/>
+      <c r="C506" s="11"/>
     </row>
     <row r="507">
-      <c r="D507" s="13"/>
+      <c r="C507" s="11"/>
     </row>
     <row r="508">
-      <c r="D508" s="13"/>
+      <c r="C508" s="11"/>
     </row>
     <row r="509">
-      <c r="D509" s="13"/>
+      <c r="C509" s="11"/>
     </row>
     <row r="510">
-      <c r="D510" s="13"/>
+      <c r="C510" s="11"/>
     </row>
     <row r="511">
-      <c r="D511" s="13"/>
+      <c r="C511" s="11"/>
     </row>
     <row r="512">
-      <c r="D512" s="13"/>
+      <c r="C512" s="11"/>
     </row>
     <row r="513">
-      <c r="D513" s="13"/>
+      <c r="C513" s="11"/>
     </row>
     <row r="514">
-      <c r="D514" s="13"/>
+      <c r="C514" s="11"/>
     </row>
     <row r="515">
-      <c r="D515" s="13"/>
+      <c r="C515" s="11"/>
     </row>
     <row r="516">
-      <c r="D516" s="13"/>
+      <c r="C516" s="11"/>
     </row>
     <row r="517">
-      <c r="D517" s="13"/>
+      <c r="C517" s="11"/>
     </row>
     <row r="518">
-      <c r="D518" s="13"/>
+      <c r="C518" s="11"/>
     </row>
     <row r="519">
-      <c r="D519" s="13"/>
+      <c r="C519" s="11"/>
     </row>
     <row r="520">
-      <c r="D520" s="13"/>
+      <c r="C520" s="11"/>
     </row>
     <row r="521">
-      <c r="D521" s="13"/>
+      <c r="C521" s="11"/>
     </row>
     <row r="522">
-      <c r="D522" s="13"/>
+      <c r="C522" s="11"/>
     </row>
     <row r="523">
-      <c r="D523" s="13"/>
+      <c r="C523" s="11"/>
     </row>
     <row r="524">
-      <c r="D524" s="13"/>
+      <c r="C524" s="11"/>
     </row>
     <row r="525">
-      <c r="D525" s="13"/>
+      <c r="C525" s="11"/>
     </row>
     <row r="526">
-      <c r="D526" s="13"/>
+      <c r="C526" s="11"/>
     </row>
     <row r="527">
-      <c r="D527" s="13"/>
+      <c r="C527" s="11"/>
     </row>
     <row r="528">
-      <c r="D528" s="13"/>
+      <c r="C528" s="11"/>
     </row>
     <row r="529">
-      <c r="D529" s="13"/>
+      <c r="C529" s="11"/>
     </row>
     <row r="530">
-      <c r="D530" s="13"/>
+      <c r="C530" s="11"/>
     </row>
     <row r="531">
-      <c r="D531" s="13"/>
+      <c r="C531" s="11"/>
     </row>
     <row r="532">
-      <c r="D532" s="13"/>
+      <c r="C532" s="11"/>
     </row>
     <row r="533">
-      <c r="D533" s="13"/>
+      <c r="C533" s="11"/>
     </row>
     <row r="534">
-      <c r="D534" s="13"/>
+      <c r="C534" s="11"/>
     </row>
     <row r="535">
-      <c r="D535" s="13"/>
+      <c r="C535" s="11"/>
     </row>
     <row r="536">
-      <c r="D536" s="13"/>
+      <c r="C536" s="11"/>
     </row>
     <row r="537">
-      <c r="D537" s="13"/>
+      <c r="C537" s="11"/>
     </row>
     <row r="538">
-      <c r="D538" s="13"/>
+      <c r="C538" s="11"/>
     </row>
     <row r="539">
-      <c r="D539" s="13"/>
+      <c r="C539" s="11"/>
     </row>
     <row r="540">
-      <c r="D540" s="13"/>
+      <c r="C540" s="11"/>
     </row>
     <row r="541">
-      <c r="D541" s="13"/>
+      <c r="C541" s="11"/>
     </row>
     <row r="542">
-      <c r="D542" s="13"/>
+      <c r="C542" s="11"/>
     </row>
     <row r="543">
-      <c r="D543" s="13"/>
+      <c r="C543" s="11"/>
     </row>
     <row r="544">
-      <c r="D544" s="13"/>
+      <c r="C544" s="11"/>
     </row>
     <row r="545">
-      <c r="D545" s="13"/>
+      <c r="C545" s="11"/>
     </row>
     <row r="546">
-      <c r="D546" s="13"/>
+      <c r="C546" s="11"/>
     </row>
     <row r="547">
-      <c r="D547" s="13"/>
+      <c r="C547" s="11"/>
     </row>
     <row r="548">
-      <c r="D548" s="13"/>
+      <c r="C548" s="11"/>
     </row>
     <row r="549">
-      <c r="D549" s="13"/>
+      <c r="C549" s="11"/>
     </row>
     <row r="550">
-      <c r="D550" s="13"/>
+      <c r="C550" s="11"/>
     </row>
     <row r="551">
-      <c r="D551" s="13"/>
+      <c r="C551" s="11"/>
     </row>
     <row r="552">
-      <c r="D552" s="13"/>
+      <c r="C552" s="11"/>
     </row>
     <row r="553">
-      <c r="D553" s="13"/>
+      <c r="C553" s="11"/>
     </row>
     <row r="554">
-      <c r="D554" s="13"/>
+      <c r="C554" s="11"/>
     </row>
     <row r="555">
-      <c r="D555" s="13"/>
+      <c r="C555" s="11"/>
     </row>
     <row r="556">
-      <c r="D556" s="13"/>
+      <c r="C556" s="11"/>
     </row>
     <row r="557">
-      <c r="D557" s="13"/>
+      <c r="C557" s="11"/>
     </row>
     <row r="558">
-      <c r="D558" s="13"/>
+      <c r="C558" s="11"/>
     </row>
     <row r="559">
-      <c r="D559" s="13"/>
+      <c r="C559" s="11"/>
     </row>
     <row r="560">
-      <c r="D560" s="13"/>
+      <c r="C560" s="11"/>
     </row>
     <row r="561">
-      <c r="D561" s="13"/>
+      <c r="C561" s="11"/>
     </row>
     <row r="562">
-      <c r="D562" s="13"/>
+      <c r="C562" s="11"/>
     </row>
     <row r="563">
-      <c r="D563" s="13"/>
+      <c r="C563" s="11"/>
     </row>
     <row r="564">
-      <c r="D564" s="13"/>
+      <c r="C564" s="11"/>
     </row>
     <row r="565">
-      <c r="D565" s="13"/>
+      <c r="C565" s="11"/>
     </row>
     <row r="566">
-      <c r="D566" s="13"/>
+      <c r="C566" s="11"/>
     </row>
     <row r="567">
-      <c r="D567" s="13"/>
+      <c r="C567" s="11"/>
     </row>
     <row r="568">
-      <c r="D568" s="13"/>
+      <c r="C568" s="11"/>
     </row>
     <row r="569">
-      <c r="D569" s="13"/>
+      <c r="C569" s="11"/>
     </row>
     <row r="570">
-      <c r="D570" s="13"/>
+      <c r="C570" s="11"/>
     </row>
     <row r="571">
-      <c r="D571" s="13"/>
+      <c r="C571" s="11"/>
     </row>
     <row r="572">
-      <c r="D572" s="13"/>
+      <c r="C572" s="11"/>
     </row>
     <row r="573">
-      <c r="D573" s="13"/>
+      <c r="C573" s="11"/>
     </row>
     <row r="574">
-      <c r="D574" s="13"/>
+      <c r="C574" s="11"/>
     </row>
     <row r="575">
-      <c r="D575" s="13"/>
+      <c r="C575" s="11"/>
     </row>
     <row r="576">
-      <c r="D576" s="13"/>
+      <c r="C576" s="11"/>
     </row>
     <row r="577">
-      <c r="D577" s="13"/>
+      <c r="C577" s="11"/>
     </row>
     <row r="578">
-      <c r="D578" s="13"/>
+      <c r="C578" s="11"/>
     </row>
     <row r="579">
-      <c r="D579" s="13"/>
+      <c r="C579" s="11"/>
     </row>
     <row r="580">
-      <c r="D580" s="13"/>
+      <c r="C580" s="11"/>
     </row>
     <row r="581">
-      <c r="D581" s="13"/>
+      <c r="C581" s="11"/>
     </row>
     <row r="582">
-      <c r="D582" s="13"/>
+      <c r="C582" s="11"/>
     </row>
     <row r="583">
-      <c r="D583" s="13"/>
+      <c r="C583" s="11"/>
     </row>
     <row r="584">
-      <c r="D584" s="13"/>
+      <c r="C584" s="11"/>
     </row>
     <row r="585">
-      <c r="D585" s="13"/>
+      <c r="C585" s="11"/>
     </row>
     <row r="586">
-      <c r="D586" s="13"/>
+      <c r="C586" s="11"/>
     </row>
     <row r="587">
-      <c r="D587" s="13"/>
+      <c r="C587" s="11"/>
     </row>
     <row r="588">
-      <c r="D588" s="13"/>
+      <c r="C588" s="11"/>
     </row>
     <row r="589">
-      <c r="D589" s="13"/>
+      <c r="C589" s="11"/>
     </row>
     <row r="590">
-      <c r="D590" s="13"/>
+      <c r="C590" s="11"/>
     </row>
     <row r="591">
-      <c r="D591" s="13"/>
+      <c r="C591" s="11"/>
     </row>
     <row r="592">
-      <c r="D592" s="13"/>
+      <c r="C592" s="11"/>
     </row>
     <row r="593">
-      <c r="D593" s="13"/>
+      <c r="C593" s="11"/>
     </row>
     <row r="594">
-      <c r="D594" s="13"/>
+      <c r="C594" s="11"/>
     </row>
     <row r="595">
-      <c r="D595" s="13"/>
+      <c r="C595" s="11"/>
     </row>
     <row r="596">
-      <c r="D596" s="13"/>
+      <c r="C596" s="11"/>
     </row>
     <row r="597">
-      <c r="D597" s="13"/>
+      <c r="C597" s="11"/>
     </row>
     <row r="598">
-      <c r="D598" s="13"/>
+      <c r="C598" s="11"/>
     </row>
     <row r="599">
-      <c r="D599" s="13"/>
+      <c r="C599" s="11"/>
     </row>
     <row r="600">
-      <c r="D600" s="13"/>
+      <c r="C600" s="11"/>
     </row>
     <row r="601">
-      <c r="D601" s="13"/>
+      <c r="C601" s="11"/>
     </row>
     <row r="602">
-      <c r="D602" s="13"/>
+      <c r="C602" s="11"/>
     </row>
     <row r="603">
-      <c r="D603" s="13"/>
+      <c r="C603" s="11"/>
     </row>
     <row r="604">
-      <c r="D604" s="13"/>
+      <c r="C604" s="11"/>
     </row>
     <row r="605">
-      <c r="D605" s="13"/>
+      <c r="C605" s="11"/>
     </row>
     <row r="606">
-      <c r="D606" s="13"/>
+      <c r="C606" s="11"/>
     </row>
     <row r="607">
-      <c r="D607" s="13"/>
+      <c r="C607" s="11"/>
     </row>
     <row r="608">
-      <c r="D608" s="13"/>
+      <c r="C608" s="11"/>
     </row>
     <row r="609">
-      <c r="D609" s="13"/>
+      <c r="C609" s="11"/>
     </row>
     <row r="610">
-      <c r="D610" s="13"/>
+      <c r="C610" s="11"/>
     </row>
     <row r="611">
-      <c r="D611" s="13"/>
+      <c r="C611" s="11"/>
     </row>
     <row r="612">
-      <c r="D612" s="13"/>
+      <c r="C612" s="11"/>
     </row>
     <row r="613">
-      <c r="D613" s="13"/>
+      <c r="C613" s="11"/>
     </row>
     <row r="614">
-      <c r="D614" s="13"/>
+      <c r="C614" s="11"/>
     </row>
     <row r="615">
-      <c r="D615" s="13"/>
+      <c r="C615" s="11"/>
     </row>
     <row r="616">
-      <c r="D616" s="13"/>
+      <c r="C616" s="11"/>
     </row>
     <row r="617">
-      <c r="D617" s="13"/>
+      <c r="C617" s="11"/>
     </row>
     <row r="618">
-      <c r="D618" s="13"/>
+      <c r="C618" s="11"/>
     </row>
     <row r="619">
-      <c r="D619" s="13"/>
+      <c r="C619" s="11"/>
     </row>
     <row r="620">
-      <c r="D620" s="13"/>
+      <c r="C620" s="11"/>
     </row>
     <row r="621">
-      <c r="D621" s="13"/>
+      <c r="C621" s="11"/>
     </row>
     <row r="622">
-      <c r="D622" s="13"/>
+      <c r="C622" s="11"/>
     </row>
     <row r="623">
-      <c r="D623" s="13"/>
+      <c r="C623" s="11"/>
     </row>
     <row r="624">
-      <c r="D624" s="13"/>
+      <c r="C624" s="11"/>
     </row>
     <row r="625">
-      <c r="D625" s="13"/>
+      <c r="C625" s="11"/>
     </row>
     <row r="626">
-      <c r="D626" s="13"/>
+      <c r="C626" s="11"/>
     </row>
     <row r="627">
-      <c r="D627" s="13"/>
+      <c r="C627" s="11"/>
     </row>
     <row r="628">
-      <c r="D628" s="13"/>
+      <c r="C628" s="11"/>
     </row>
     <row r="629">
-      <c r="D629" s="13"/>
+      <c r="C629" s="11"/>
     </row>
     <row r="630">
-      <c r="D630" s="13"/>
+      <c r="C630" s="11"/>
     </row>
     <row r="631">
-      <c r="D631" s="13"/>
+      <c r="C631" s="11"/>
     </row>
     <row r="632">
-      <c r="D632" s="13"/>
+      <c r="C632" s="11"/>
     </row>
     <row r="633">
-      <c r="D633" s="13"/>
+      <c r="C633" s="11"/>
     </row>
     <row r="634">
-      <c r="D634" s="13"/>
+      <c r="C634" s="11"/>
     </row>
     <row r="635">
-      <c r="D635" s="13"/>
+      <c r="C635" s="11"/>
     </row>
     <row r="636">
-      <c r="D636" s="13"/>
+      <c r="C636" s="11"/>
     </row>
     <row r="637">
-      <c r="D637" s="13"/>
+      <c r="C637" s="11"/>
     </row>
     <row r="638">
-      <c r="D638" s="13"/>
+      <c r="C638" s="11"/>
     </row>
     <row r="639">
-      <c r="D639" s="13"/>
+      <c r="C639" s="11"/>
     </row>
     <row r="640">
-      <c r="D640" s="13"/>
+      <c r="C640" s="11"/>
     </row>
     <row r="641">
-      <c r="D641" s="13"/>
+      <c r="C641" s="11"/>
     </row>
     <row r="642">
-      <c r="D642" s="13"/>
+      <c r="C642" s="11"/>
     </row>
     <row r="643">
-      <c r="D643" s="13"/>
+      <c r="C643" s="11"/>
     </row>
     <row r="644">
-      <c r="D644" s="13"/>
+      <c r="C644" s="11"/>
     </row>
     <row r="645">
-      <c r="D645" s="13"/>
+      <c r="C645" s="11"/>
     </row>
     <row r="646">
-      <c r="D646" s="13"/>
+      <c r="C646" s="11"/>
     </row>
     <row r="647">
-      <c r="D647" s="13"/>
+      <c r="C647" s="11"/>
     </row>
     <row r="648">
-      <c r="D648" s="13"/>
+      <c r="C648" s="11"/>
     </row>
     <row r="649">
-      <c r="D649" s="13"/>
+      <c r="C649" s="11"/>
     </row>
     <row r="650">
-      <c r="D650" s="13"/>
+      <c r="C650" s="11"/>
     </row>
     <row r="651">
-      <c r="D651" s="13"/>
+      <c r="C651" s="11"/>
     </row>
     <row r="652">
-      <c r="D652" s="13"/>
+      <c r="C652" s="11"/>
     </row>
     <row r="653">
-      <c r="D653" s="13"/>
+      <c r="C653" s="11"/>
     </row>
     <row r="654">
-      <c r="D654" s="13"/>
+      <c r="C654" s="11"/>
     </row>
     <row r="655">
-      <c r="D655" s="13"/>
+      <c r="C655" s="11"/>
     </row>
     <row r="656">
-      <c r="D656" s="13"/>
+      <c r="C656" s="11"/>
     </row>
     <row r="657">
-      <c r="D657" s="13"/>
+      <c r="C657" s="11"/>
     </row>
     <row r="658">
-      <c r="D658" s="13"/>
+      <c r="C658" s="11"/>
     </row>
     <row r="659">
-      <c r="D659" s="13"/>
+      <c r="C659" s="11"/>
     </row>
     <row r="660">
-      <c r="D660" s="13"/>
+      <c r="C660" s="11"/>
     </row>
     <row r="661">
-      <c r="D661" s="13"/>
+      <c r="C661" s="11"/>
     </row>
     <row r="662">
-      <c r="D662" s="13"/>
+      <c r="C662" s="11"/>
     </row>
     <row r="663">
-      <c r="D663" s="13"/>
+      <c r="C663" s="11"/>
     </row>
     <row r="664">
-      <c r="D664" s="13"/>
+      <c r="C664" s="11"/>
     </row>
     <row r="665">
-      <c r="D665" s="13"/>
+      <c r="C665" s="11"/>
     </row>
     <row r="666">
-      <c r="D666" s="13"/>
+      <c r="C666" s="11"/>
     </row>
     <row r="667">
-      <c r="D667" s="13"/>
+      <c r="C667" s="11"/>
     </row>
     <row r="668">
-      <c r="D668" s="13"/>
+      <c r="C668" s="11"/>
     </row>
     <row r="669">
-      <c r="D669" s="13"/>
+      <c r="C669" s="11"/>
     </row>
     <row r="670">
-      <c r="D670" s="13"/>
+      <c r="C670" s="11"/>
     </row>
     <row r="671">
-      <c r="D671" s="13"/>
+      <c r="C671" s="11"/>
     </row>
     <row r="672">
-      <c r="D672" s="13"/>
+      <c r="C672" s="11"/>
     </row>
     <row r="673">
-      <c r="D673" s="13"/>
+      <c r="C673" s="11"/>
     </row>
     <row r="674">
-      <c r="D674" s="13"/>
+      <c r="C674" s="11"/>
     </row>
     <row r="675">
-      <c r="D675" s="13"/>
+      <c r="C675" s="11"/>
     </row>
     <row r="676">
-      <c r="D676" s="13"/>
+      <c r="C676" s="11"/>
     </row>
     <row r="677">
-      <c r="D677" s="13"/>
+      <c r="C677" s="11"/>
     </row>
     <row r="678">
-      <c r="D678" s="13"/>
+      <c r="C678" s="11"/>
     </row>
     <row r="679">
-      <c r="D679" s="13"/>
+      <c r="C679" s="11"/>
     </row>
     <row r="680">
-      <c r="D680" s="13"/>
+      <c r="C680" s="11"/>
     </row>
     <row r="681">
-      <c r="D681" s="13"/>
+      <c r="C681" s="11"/>
     </row>
     <row r="682">
-      <c r="D682" s="13"/>
+      <c r="C682" s="11"/>
     </row>
     <row r="683">
-      <c r="D683" s="13"/>
+      <c r="C683" s="11"/>
     </row>
     <row r="684">
-      <c r="D684" s="13"/>
+      <c r="C684" s="11"/>
     </row>
     <row r="685">
-      <c r="D685" s="13"/>
+      <c r="C685" s="11"/>
     </row>
     <row r="686">
-      <c r="D686" s="13"/>
+      <c r="C686" s="11"/>
     </row>
     <row r="687">
-      <c r="D687" s="13"/>
+      <c r="C687" s="11"/>
     </row>
     <row r="688">
-      <c r="D688" s="13"/>
+      <c r="C688" s="11"/>
     </row>
     <row r="689">
-      <c r="D689" s="13"/>
+      <c r="C689" s="11"/>
     </row>
     <row r="690">
-      <c r="D690" s="13"/>
+      <c r="C690" s="11"/>
     </row>
     <row r="691">
-      <c r="D691" s="13"/>
+      <c r="C691" s="11"/>
     </row>
     <row r="692">
-      <c r="D692" s="13"/>
+      <c r="C692" s="11"/>
     </row>
     <row r="693">
-      <c r="D693" s="13"/>
+      <c r="C693" s="11"/>
     </row>
     <row r="694">
-      <c r="D694" s="13"/>
+      <c r="C694" s="11"/>
     </row>
     <row r="695">
-      <c r="D695" s="13"/>
+      <c r="C695" s="11"/>
     </row>
     <row r="696">
-      <c r="D696" s="13"/>
+      <c r="C696" s="11"/>
     </row>
     <row r="697">
-      <c r="D697" s="13"/>
+      <c r="C697" s="11"/>
     </row>
     <row r="698">
-      <c r="D698" s="13"/>
+      <c r="C698" s="11"/>
     </row>
     <row r="699">
-      <c r="D699" s="13"/>
+      <c r="C699" s="11"/>
     </row>
     <row r="700">
-      <c r="D700" s="13"/>
+      <c r="C700" s="11"/>
     </row>
     <row r="701">
-      <c r="D701" s="13"/>
+      <c r="C701" s="11"/>
     </row>
     <row r="702">
-      <c r="D702" s="13"/>
+      <c r="C702" s="11"/>
     </row>
     <row r="703">
-      <c r="D703" s="13"/>
+      <c r="C703" s="11"/>
     </row>
     <row r="704">
-      <c r="D704" s="13"/>
+      <c r="C704" s="11"/>
     </row>
     <row r="705">
-      <c r="D705" s="13"/>
+      <c r="C705" s="11"/>
     </row>
     <row r="706">
-      <c r="D706" s="13"/>
+      <c r="C706" s="11"/>
     </row>
     <row r="707">
-      <c r="D707" s="13"/>
+      <c r="C707" s="11"/>
     </row>
     <row r="708">
-      <c r="D708" s="13"/>
+      <c r="C708" s="11"/>
     </row>
     <row r="709">
-      <c r="D709" s="13"/>
+      <c r="C709" s="11"/>
     </row>
     <row r="710">
-      <c r="D710" s="13"/>
+      <c r="C710" s="11"/>
     </row>
     <row r="711">
-      <c r="D711" s="13"/>
+      <c r="C711" s="11"/>
     </row>
     <row r="712">
-      <c r="D712" s="13"/>
+      <c r="C712" s="11"/>
     </row>
     <row r="713">
-      <c r="D713" s="13"/>
+      <c r="C713" s="11"/>
     </row>
     <row r="714">
-      <c r="D714" s="13"/>
+      <c r="C714" s="11"/>
     </row>
     <row r="715">
-      <c r="D715" s="13"/>
+      <c r="C715" s="11"/>
     </row>
     <row r="716">
-      <c r="D716" s="13"/>
+      <c r="C716" s="11"/>
     </row>
     <row r="717">
-      <c r="D717" s="13"/>
+      <c r="C717" s="11"/>
     </row>
     <row r="718">
-      <c r="D718" s="13"/>
+      <c r="C718" s="11"/>
     </row>
     <row r="719">
-      <c r="D719" s="13"/>
+      <c r="C719" s="11"/>
     </row>
     <row r="720">
-      <c r="D720" s="13"/>
+      <c r="C720" s="11"/>
     </row>
     <row r="721">
-      <c r="D721" s="13"/>
+      <c r="C721" s="11"/>
     </row>
     <row r="722">
-      <c r="D722" s="13"/>
+      <c r="C722" s="11"/>
     </row>
     <row r="723">
-      <c r="D723" s="13"/>
+      <c r="C723" s="11"/>
     </row>
     <row r="724">
-      <c r="D724" s="13"/>
+      <c r="C724" s="11"/>
     </row>
     <row r="725">
-      <c r="D725" s="13"/>
+      <c r="C725" s="11"/>
     </row>
     <row r="726">
-      <c r="D726" s="13"/>
+      <c r="C726" s="11"/>
     </row>
     <row r="727">
-      <c r="D727" s="13"/>
+      <c r="C727" s="11"/>
     </row>
     <row r="728">
-      <c r="D728" s="13"/>
+      <c r="C728" s="11"/>
     </row>
     <row r="729">
-      <c r="D729" s="13"/>
+      <c r="C729" s="11"/>
     </row>
     <row r="730">
-      <c r="D730" s="13"/>
+      <c r="C730" s="11"/>
     </row>
     <row r="731">
-      <c r="D731" s="13"/>
+      <c r="C731" s="11"/>
     </row>
     <row r="732">
-      <c r="D732" s="13"/>
+      <c r="C732" s="11"/>
     </row>
     <row r="733">
-      <c r="D733" s="13"/>
+      <c r="C733" s="11"/>
     </row>
     <row r="734">
-      <c r="D734" s="13"/>
+      <c r="C734" s="11"/>
     </row>
     <row r="735">
-      <c r="D735" s="13"/>
+      <c r="C735" s="11"/>
     </row>
     <row r="736">
-      <c r="D736" s="13"/>
+      <c r="C736" s="11"/>
     </row>
     <row r="737">
-      <c r="D737" s="13"/>
+      <c r="C737" s="11"/>
     </row>
     <row r="738">
-      <c r="D738" s="13"/>
+      <c r="C738" s="11"/>
     </row>
     <row r="739">
-      <c r="D739" s="13"/>
+      <c r="C739" s="11"/>
     </row>
     <row r="740">
-      <c r="D740" s="13"/>
+      <c r="C740" s="11"/>
     </row>
     <row r="741">
-      <c r="D741" s="13"/>
+      <c r="C741" s="11"/>
     </row>
     <row r="742">
-      <c r="D742" s="13"/>
+      <c r="C742" s="11"/>
     </row>
     <row r="743">
-      <c r="D743" s="13"/>
+      <c r="C743" s="11"/>
     </row>
     <row r="744">
-      <c r="D744" s="13"/>
+      <c r="C744" s="11"/>
     </row>
     <row r="745">
-      <c r="D745" s="13"/>
+      <c r="C745" s="11"/>
     </row>
     <row r="746">
-      <c r="D746" s="13"/>
+      <c r="C746" s="11"/>
     </row>
     <row r="747">
-      <c r="D747" s="13"/>
+      <c r="C747" s="11"/>
     </row>
     <row r="748">
-      <c r="D748" s="13"/>
+      <c r="C748" s="11"/>
     </row>
     <row r="749">
-      <c r="D749" s="13"/>
+      <c r="C749" s="11"/>
     </row>
     <row r="750">
-      <c r="D750" s="13"/>
+      <c r="C750" s="11"/>
     </row>
     <row r="751">
-      <c r="D751" s="13"/>
+      <c r="C751" s="11"/>
     </row>
     <row r="752">
-      <c r="D752" s="13"/>
+      <c r="C752" s="11"/>
     </row>
     <row r="753">
-      <c r="D753" s="13"/>
+      <c r="C753" s="11"/>
     </row>
     <row r="754">
-      <c r="D754" s="13"/>
+      <c r="C754" s="11"/>
     </row>
     <row r="755">
-      <c r="D755" s="13"/>
+      <c r="C755" s="11"/>
     </row>
     <row r="756">
-      <c r="D756" s="13"/>
+      <c r="C756" s="11"/>
     </row>
     <row r="757">
-      <c r="D757" s="13"/>
+      <c r="C757" s="11"/>
     </row>
     <row r="758">
-      <c r="D758" s="13"/>
+      <c r="C758" s="11"/>
     </row>
     <row r="759">
-      <c r="D759" s="13"/>
+      <c r="C759" s="11"/>
     </row>
     <row r="760">
-      <c r="D760" s="13"/>
+      <c r="C760" s="11"/>
     </row>
     <row r="761">
-      <c r="D761" s="13"/>
+      <c r="C761" s="11"/>
     </row>
     <row r="762">
-      <c r="D762" s="13"/>
+      <c r="C762" s="11"/>
     </row>
     <row r="763">
-      <c r="D763" s="13"/>
+      <c r="C763" s="11"/>
     </row>
     <row r="764">
-      <c r="D764" s="13"/>
+      <c r="C764" s="11"/>
     </row>
     <row r="765">
-      <c r="D765" s="13"/>
+      <c r="C765" s="11"/>
     </row>
     <row r="766">
-      <c r="D766" s="13"/>
+      <c r="C766" s="11"/>
     </row>
     <row r="767">
-      <c r="D767" s="13"/>
+      <c r="C767" s="11"/>
     </row>
     <row r="768">
-      <c r="D768" s="13"/>
+      <c r="C768" s="11"/>
     </row>
     <row r="769">
-      <c r="D769" s="13"/>
+      <c r="C769" s="11"/>
     </row>
     <row r="770">
-      <c r="D770" s="13"/>
+      <c r="C770" s="11"/>
     </row>
     <row r="771">
-      <c r="D771" s="13"/>
+      <c r="C771" s="11"/>
     </row>
     <row r="772">
-      <c r="D772" s="13"/>
+      <c r="C772" s="11"/>
     </row>
     <row r="773">
-      <c r="D773" s="13"/>
+      <c r="C773" s="11"/>
     </row>
     <row r="774">
-      <c r="D774" s="13"/>
+      <c r="C774" s="11"/>
     </row>
     <row r="775">
-      <c r="D775" s="13"/>
+      <c r="C775" s="11"/>
     </row>
     <row r="776">
-      <c r="D776" s="13"/>
+      <c r="C776" s="11"/>
     </row>
     <row r="777">
-      <c r="D777" s="13"/>
+      <c r="C777" s="11"/>
     </row>
     <row r="778">
-      <c r="D778" s="13"/>
+      <c r="C778" s="11"/>
     </row>
     <row r="779">
-      <c r="D779" s="13"/>
+      <c r="C779" s="11"/>
     </row>
     <row r="780">
-      <c r="D780" s="13"/>
+      <c r="C780" s="11"/>
     </row>
     <row r="781">
-      <c r="D781" s="13"/>
+      <c r="C781" s="11"/>
     </row>
     <row r="782">
-      <c r="D782" s="13"/>
+      <c r="C782" s="11"/>
     </row>
     <row r="783">
-      <c r="D783" s="13"/>
+      <c r="C783" s="11"/>
     </row>
     <row r="784">
-      <c r="D784" s="13"/>
+      <c r="C784" s="11"/>
     </row>
     <row r="785">
-      <c r="D785" s="13"/>
+      <c r="C785" s="11"/>
     </row>
     <row r="786">
-      <c r="D786" s="13"/>
+      <c r="C786" s="11"/>
     </row>
     <row r="787">
-      <c r="D787" s="13"/>
+      <c r="C787" s="11"/>
     </row>
     <row r="788">
-      <c r="D788" s="13"/>
+      <c r="C788" s="11"/>
     </row>
     <row r="789">
-      <c r="D789" s="13"/>
+      <c r="C789" s="11"/>
     </row>
     <row r="790">
-      <c r="D790" s="13"/>
+      <c r="C790" s="11"/>
     </row>
     <row r="791">
-      <c r="D791" s="13"/>
+      <c r="C791" s="11"/>
     </row>
     <row r="792">
-      <c r="D792" s="13"/>
+      <c r="C792" s="11"/>
     </row>
     <row r="793">
-      <c r="D793" s="13"/>
+      <c r="C793" s="11"/>
     </row>
     <row r="794">
-      <c r="D794" s="13"/>
+      <c r="C794" s="11"/>
     </row>
     <row r="795">
-      <c r="D795" s="13"/>
+      <c r="C795" s="11"/>
     </row>
     <row r="796">
-      <c r="D796" s="13"/>
+      <c r="C796" s="11"/>
     </row>
     <row r="797">
-      <c r="D797" s="13"/>
+      <c r="C797" s="11"/>
     </row>
     <row r="798">
-      <c r="D798" s="13"/>
+      <c r="C798" s="11"/>
     </row>
     <row r="799">
-      <c r="D799" s="13"/>
+      <c r="C799" s="11"/>
     </row>
     <row r="800">
-      <c r="D800" s="13"/>
+      <c r="C800" s="11"/>
     </row>
     <row r="801">
-      <c r="D801" s="13"/>
+      <c r="C801" s="11"/>
     </row>
     <row r="802">
-      <c r="D802" s="13"/>
+      <c r="C802" s="11"/>
     </row>
     <row r="803">
-      <c r="D803" s="13"/>
+      <c r="C803" s="11"/>
     </row>
     <row r="804">
-      <c r="D804" s="13"/>
+      <c r="C804" s="11"/>
     </row>
     <row r="805">
-      <c r="D805" s="13"/>
+      <c r="C805" s="11"/>
     </row>
     <row r="806">
-      <c r="D806" s="13"/>
+      <c r="C806" s="11"/>
     </row>
     <row r="807">
-      <c r="D807" s="13"/>
+      <c r="C807" s="11"/>
     </row>
     <row r="808">
-      <c r="D808" s="13"/>
+      <c r="C808" s="11"/>
     </row>
     <row r="809">
-      <c r="D809" s="13"/>
+      <c r="C809" s="11"/>
     </row>
     <row r="810">
-      <c r="D810" s="13"/>
+      <c r="C810" s="11"/>
     </row>
     <row r="811">
-      <c r="D811" s="13"/>
+      <c r="C811" s="11"/>
     </row>
     <row r="812">
-      <c r="D812" s="13"/>
+      <c r="C812" s="11"/>
     </row>
     <row r="813">
-      <c r="D813" s="13"/>
+      <c r="C813" s="11"/>
     </row>
     <row r="814">
-      <c r="D814" s="13"/>
+      <c r="C814" s="11"/>
     </row>
     <row r="815">
-      <c r="D815" s="13"/>
+      <c r="C815" s="11"/>
     </row>
     <row r="816">
-      <c r="D816" s="13"/>
+      <c r="C816" s="11"/>
     </row>
     <row r="817">
-      <c r="D817" s="13"/>
+      <c r="C817" s="11"/>
     </row>
     <row r="818">
-      <c r="D818" s="13"/>
+      <c r="C818" s="11"/>
     </row>
     <row r="819">
-      <c r="D819" s="13"/>
+      <c r="C819" s="11"/>
     </row>
     <row r="820">
-      <c r="D820" s="13"/>
+      <c r="C820" s="11"/>
     </row>
     <row r="821">
-      <c r="D821" s="13"/>
+      <c r="C821" s="11"/>
     </row>
     <row r="822">
-      <c r="D822" s="13"/>
+      <c r="C822" s="11"/>
     </row>
     <row r="823">
-      <c r="D823" s="13"/>
+      <c r="C823" s="11"/>
     </row>
     <row r="824">
-      <c r="D824" s="13"/>
+      <c r="C824" s="11"/>
     </row>
     <row r="825">
-      <c r="D825" s="13"/>
+      <c r="C825" s="11"/>
     </row>
     <row r="826">
-      <c r="D826" s="13"/>
+      <c r="C826" s="11"/>
     </row>
     <row r="827">
-      <c r="D827" s="13"/>
+      <c r="C827" s="11"/>
     </row>
     <row r="828">
-      <c r="D828" s="13"/>
+      <c r="C828" s="11"/>
     </row>
     <row r="829">
-      <c r="D829" s="13"/>
+      <c r="C829" s="11"/>
     </row>
     <row r="830">
-      <c r="D830" s="13"/>
+      <c r="C830" s="11"/>
     </row>
     <row r="831">
-      <c r="D831" s="13"/>
+      <c r="C831" s="11"/>
     </row>
     <row r="832">
-      <c r="D832" s="13"/>
+      <c r="C832" s="11"/>
     </row>
     <row r="833">
-      <c r="D833" s="13"/>
+      <c r="C833" s="11"/>
     </row>
     <row r="834">
-      <c r="D834" s="13"/>
+      <c r="C834" s="11"/>
     </row>
     <row r="835">
-      <c r="D835" s="13"/>
+      <c r="C835" s="11"/>
     </row>
     <row r="836">
-      <c r="D836" s="13"/>
+      <c r="C836" s="11"/>
     </row>
     <row r="837">
-      <c r="D837" s="13"/>
+      <c r="C837" s="11"/>
     </row>
     <row r="838">
-      <c r="D838" s="13"/>
+      <c r="C838" s="11"/>
     </row>
     <row r="839">
-      <c r="D839" s="13"/>
+      <c r="C839" s="11"/>
     </row>
     <row r="840">
-      <c r="D840" s="13"/>
+      <c r="C840" s="11"/>
     </row>
     <row r="841">
-      <c r="D841" s="13"/>
+      <c r="C841" s="11"/>
     </row>
     <row r="842">
-      <c r="D842" s="13"/>
+      <c r="C842" s="11"/>
     </row>
     <row r="843">
-      <c r="D843" s="13"/>
+      <c r="C843" s="11"/>
     </row>
     <row r="844">
-      <c r="D844" s="13"/>
+      <c r="C844" s="11"/>
     </row>
     <row r="845">
-      <c r="D845" s="13"/>
+      <c r="C845" s="11"/>
     </row>
     <row r="846">
-      <c r="D846" s="13"/>
+      <c r="C846" s="11"/>
     </row>
     <row r="847">
-      <c r="D847" s="13"/>
+      <c r="C847" s="11"/>
     </row>
     <row r="848">
-      <c r="D848" s="13"/>
+      <c r="C848" s="11"/>
     </row>
     <row r="849">
-      <c r="D849" s="13"/>
+      <c r="C849" s="11"/>
     </row>
     <row r="850">
-      <c r="D850" s="13"/>
+      <c r="C850" s="11"/>
     </row>
     <row r="851">
-      <c r="D851" s="13"/>
+      <c r="C851" s="11"/>
     </row>
     <row r="852">
-      <c r="D852" s="13"/>
+      <c r="C852" s="11"/>
     </row>
     <row r="853">
-      <c r="D853" s="13"/>
+      <c r="C853" s="11"/>
     </row>
     <row r="854">
-      <c r="D854" s="13"/>
+      <c r="C854" s="11"/>
     </row>
     <row r="855">
-      <c r="D855" s="13"/>
+      <c r="C855" s="11"/>
     </row>
     <row r="856">
-      <c r="D856" s="13"/>
+      <c r="C856" s="11"/>
     </row>
     <row r="857">
-      <c r="D857" s="13"/>
+      <c r="C857" s="11"/>
     </row>
     <row r="858">
-      <c r="D858" s="13"/>
+      <c r="C858" s="11"/>
     </row>
     <row r="859">
-      <c r="D859" s="13"/>
+      <c r="C859" s="11"/>
     </row>
     <row r="860">
-      <c r="D860" s="13"/>
+      <c r="C860" s="11"/>
     </row>
     <row r="861">
-      <c r="D861" s="13"/>
+      <c r="C861" s="11"/>
     </row>
     <row r="862">
-      <c r="D862" s="13"/>
+      <c r="C862" s="11"/>
     </row>
     <row r="863">
-      <c r="D863" s="13"/>
+      <c r="C863" s="11"/>
     </row>
     <row r="864">
-      <c r="D864" s="13"/>
+      <c r="C864" s="11"/>
     </row>
     <row r="865">
-      <c r="D865" s="13"/>
+      <c r="C865" s="11"/>
     </row>
     <row r="866">
-      <c r="D866" s="13"/>
+      <c r="C866" s="11"/>
     </row>
     <row r="867">
-      <c r="D867" s="13"/>
+      <c r="C867" s="11"/>
     </row>
     <row r="868">
-      <c r="D868" s="13"/>
+      <c r="C868" s="11"/>
     </row>
     <row r="869">
-      <c r="D869" s="13"/>
+      <c r="C869" s="11"/>
     </row>
     <row r="870">
-      <c r="D870" s="13"/>
+      <c r="C870" s="11"/>
     </row>
     <row r="871">
-      <c r="D871" s="13"/>
+      <c r="C871" s="11"/>
     </row>
     <row r="872">
-      <c r="D872" s="13"/>
+      <c r="C872" s="11"/>
     </row>
     <row r="873">
-      <c r="D873" s="13"/>
+      <c r="C873" s="11"/>
     </row>
     <row r="874">
-      <c r="D874" s="13"/>
+      <c r="C874" s="11"/>
     </row>
     <row r="875">
-      <c r="D875" s="13"/>
+      <c r="C875" s="11"/>
     </row>
     <row r="876">
-      <c r="D876" s="13"/>
+      <c r="C876" s="11"/>
     </row>
     <row r="877">
-      <c r="D877" s="13"/>
+      <c r="C877" s="11"/>
     </row>
     <row r="878">
-      <c r="D878" s="13"/>
+      <c r="C878" s="11"/>
     </row>
     <row r="879">
-      <c r="D879" s="13"/>
+      <c r="C879" s="11"/>
     </row>
     <row r="880">
-      <c r="D880" s="13"/>
+      <c r="C880" s="11"/>
     </row>
     <row r="881">
-      <c r="D881" s="13"/>
+      <c r="C881" s="11"/>
     </row>
     <row r="882">
-      <c r="D882" s="13"/>
+      <c r="C882" s="11"/>
     </row>
     <row r="883">
-      <c r="D883" s="13"/>
+      <c r="C883" s="11"/>
     </row>
     <row r="884">
-      <c r="D884" s="13"/>
+      <c r="C884" s="11"/>
     </row>
     <row r="885">
-      <c r="D885" s="13"/>
+      <c r="C885" s="11"/>
     </row>
     <row r="886">
-      <c r="D886" s="13"/>
+      <c r="C886" s="11"/>
     </row>
     <row r="887">
-      <c r="D887" s="13"/>
+      <c r="C887" s="11"/>
     </row>
     <row r="888">
-      <c r="D888" s="13"/>
+      <c r="C888" s="11"/>
     </row>
     <row r="889">
-      <c r="D889" s="13"/>
+      <c r="C889" s="11"/>
     </row>
     <row r="890">
-      <c r="D890" s="13"/>
+      <c r="C890" s="11"/>
     </row>
     <row r="891">
-      <c r="D891" s="13"/>
+      <c r="C891" s="11"/>
     </row>
     <row r="892">
-      <c r="D892" s="13"/>
+      <c r="C892" s="11"/>
     </row>
     <row r="893">
-      <c r="D893" s="13"/>
+      <c r="C893" s="11"/>
     </row>
     <row r="894">
-      <c r="D894" s="13"/>
+      <c r="C894" s="11"/>
     </row>
     <row r="895">
-      <c r="D895" s="13"/>
+      <c r="C895" s="11"/>
     </row>
     <row r="896">
-      <c r="D896" s="13"/>
+      <c r="C896" s="11"/>
     </row>
     <row r="897">
-      <c r="D897" s="13"/>
+      <c r="C897" s="11"/>
     </row>
     <row r="898">
-      <c r="D898" s="13"/>
+      <c r="C898" s="11"/>
     </row>
     <row r="899">
-      <c r="D899" s="13"/>
+      <c r="C899" s="11"/>
     </row>
     <row r="900">
-      <c r="D900" s="13"/>
+      <c r="C900" s="11"/>
     </row>
     <row r="901">
-      <c r="D901" s="13"/>
+      <c r="C901" s="11"/>
     </row>
     <row r="902">
-      <c r="D902" s="13"/>
+      <c r="C902" s="11"/>
     </row>
     <row r="903">
-      <c r="D903" s="13"/>
+      <c r="C903" s="11"/>
     </row>
     <row r="904">
-      <c r="D904" s="13"/>
+      <c r="C904" s="11"/>
     </row>
     <row r="905">
-      <c r="D905" s="13"/>
+      <c r="C905" s="11"/>
     </row>
     <row r="906">
-      <c r="D906" s="13"/>
+      <c r="C906" s="11"/>
     </row>
     <row r="907">
-      <c r="D907" s="13"/>
+      <c r="C907" s="11"/>
     </row>
     <row r="908">
-      <c r="D908" s="13"/>
+      <c r="C908" s="11"/>
     </row>
     <row r="909">
-      <c r="D909" s="13"/>
+      <c r="C909" s="11"/>
     </row>
     <row r="910">
-      <c r="D910" s="13"/>
+      <c r="C910" s="11"/>
     </row>
     <row r="911">
-      <c r="D911" s="13"/>
+      <c r="C911" s="11"/>
     </row>
     <row r="912">
-      <c r="D912" s="13"/>
+      <c r="C912" s="11"/>
     </row>
     <row r="913">
-      <c r="D913" s="13"/>
+      <c r="C913" s="11"/>
     </row>
     <row r="914">
-      <c r="D914" s="13"/>
+      <c r="C914" s="11"/>
     </row>
     <row r="915">
-      <c r="D915" s="13"/>
+      <c r="C915" s="11"/>
     </row>
     <row r="916">
-      <c r="D916" s="13"/>
+      <c r="C916" s="11"/>
     </row>
     <row r="917">
-      <c r="D917" s="13"/>
+      <c r="C917" s="11"/>
     </row>
     <row r="918">
-      <c r="D918" s="13"/>
+      <c r="C918" s="11"/>
     </row>
     <row r="919">
-      <c r="D919" s="13"/>
+      <c r="C919" s="11"/>
     </row>
     <row r="920">
-      <c r="D920" s="13"/>
+      <c r="C920" s="11"/>
     </row>
     <row r="921">
-      <c r="D921" s="13"/>
+      <c r="C921" s="11"/>
     </row>
     <row r="922">
-      <c r="D922" s="13"/>
+      <c r="C922" s="11"/>
     </row>
     <row r="923">
-      <c r="D923" s="13"/>
+      <c r="C923" s="11"/>
     </row>
     <row r="924">
-      <c r="D924" s="13"/>
+      <c r="C924" s="11"/>
     </row>
     <row r="925">
-      <c r="D925" s="13"/>
+      <c r="C925" s="11"/>
     </row>
     <row r="926">
-      <c r="D926" s="13"/>
+      <c r="C926" s="11"/>
     </row>
     <row r="927">
-      <c r="D927" s="13"/>
+      <c r="C927" s="11"/>
     </row>
     <row r="928">
-      <c r="D928" s="13"/>
+      <c r="C928" s="11"/>
     </row>
     <row r="929">
-      <c r="D929" s="13"/>
+      <c r="C929" s="11"/>
     </row>
     <row r="930">
-      <c r="D930" s="13"/>
+      <c r="C930" s="11"/>
     </row>
     <row r="931">
-      <c r="D931" s="13"/>
+      <c r="C931" s="11"/>
     </row>
     <row r="932">
-      <c r="D932" s="13"/>
+      <c r="C932" s="11"/>
     </row>
     <row r="933">
-      <c r="D933" s="13"/>
+      <c r="C933" s="11"/>
     </row>
     <row r="934">
-      <c r="D934" s="13"/>
+      <c r="C934" s="11"/>
     </row>
     <row r="935">
-      <c r="D935" s="13"/>
+      <c r="C935" s="11"/>
     </row>
     <row r="936">
-      <c r="D936" s="13"/>
+      <c r="C936" s="11"/>
     </row>
     <row r="937">
-      <c r="D937" s="13"/>
+      <c r="C937" s="11"/>
     </row>
     <row r="938">
-      <c r="D938" s="13"/>
+      <c r="C938" s="11"/>
     </row>
     <row r="939">
-      <c r="D939" s="13"/>
+      <c r="C939" s="11"/>
     </row>
     <row r="940">
-      <c r="D940" s="13"/>
+      <c r="C940" s="11"/>
     </row>
     <row r="941">
-      <c r="D941" s="13"/>
+      <c r="C941" s="11"/>
     </row>
     <row r="942">
-      <c r="D942" s="13"/>
+      <c r="C942" s="11"/>
     </row>
     <row r="943">
-      <c r="D943" s="13"/>
+      <c r="C943" s="11"/>
     </row>
     <row r="944">
-      <c r="D944" s="13"/>
+      <c r="C944" s="11"/>
     </row>
     <row r="945">
-      <c r="D945" s="13"/>
+      <c r="C945" s="11"/>
     </row>
     <row r="946">
-      <c r="D946" s="13"/>
+      <c r="C946" s="11"/>
     </row>
     <row r="947">
-      <c r="D947" s="13"/>
+      <c r="C947" s="11"/>
     </row>
     <row r="948">
-      <c r="D948" s="13"/>
+      <c r="C948" s="11"/>
     </row>
     <row r="949">
-      <c r="D949" s="13"/>
+      <c r="C949" s="11"/>
     </row>
     <row r="950">
-      <c r="D950" s="13"/>
+      <c r="C950" s="11"/>
     </row>
     <row r="951">
-      <c r="D951" s="13"/>
+      <c r="C951" s="11"/>
     </row>
     <row r="952">
-      <c r="D952" s="13"/>
+      <c r="C952" s="11"/>
     </row>
     <row r="953">
-      <c r="D953" s="13"/>
+      <c r="C953" s="11"/>
     </row>
     <row r="954">
-      <c r="D954" s="13"/>
+      <c r="C954" s="11"/>
     </row>
     <row r="955">
-      <c r="D955" s="13"/>
+      <c r="C955" s="11"/>
     </row>
     <row r="956">
-      <c r="D956" s="13"/>
+      <c r="C956" s="11"/>
     </row>
     <row r="957">
-      <c r="D957" s="13"/>
+      <c r="C957" s="11"/>
     </row>
     <row r="958">
-      <c r="D958" s="13"/>
+      <c r="C958" s="11"/>
     </row>
     <row r="959">
-      <c r="D959" s="13"/>
+      <c r="C959" s="11"/>
     </row>
     <row r="960">
-      <c r="D960" s="13"/>
+      <c r="C960" s="11"/>
     </row>
     <row r="961">
-      <c r="D961" s="13"/>
+      <c r="C961" s="11"/>
     </row>
     <row r="962">
-      <c r="D962" s="13"/>
+      <c r="C962" s="11"/>
     </row>
     <row r="963">
-      <c r="D963" s="13"/>
+      <c r="C963" s="11"/>
     </row>
     <row r="964">
-      <c r="D964" s="13"/>
+      <c r="C964" s="11"/>
     </row>
     <row r="965">
-      <c r="D965" s="13"/>
+      <c r="C965" s="11"/>
     </row>
     <row r="966">
-      <c r="D966" s="13"/>
+      <c r="C966" s="11"/>
     </row>
     <row r="967">
-      <c r="D967" s="13"/>
+      <c r="C967" s="11"/>
     </row>
     <row r="968">
-      <c r="D968" s="13"/>
+      <c r="C968" s="11"/>
     </row>
     <row r="969">
-      <c r="D969" s="13"/>
+      <c r="C969" s="11"/>
     </row>
     <row r="970">
-      <c r="D970" s="13"/>
+      <c r="C970" s="11"/>
     </row>
     <row r="971">
-      <c r="D971" s="13"/>
+      <c r="C971" s="11"/>
     </row>
     <row r="972">
-      <c r="D972" s="13"/>
+      <c r="C972" s="11"/>
     </row>
     <row r="973">
-      <c r="D973" s="13"/>
+      <c r="C973" s="11"/>
     </row>
     <row r="974">
-      <c r="D974" s="13"/>
+      <c r="C974" s="11"/>
     </row>
     <row r="975">
-      <c r="D975" s="13"/>
+      <c r="C975" s="11"/>
     </row>
     <row r="976">
-      <c r="D976" s="13"/>
+      <c r="C976" s="11"/>
     </row>
     <row r="977">
-      <c r="D977" s="13"/>
+      <c r="C977" s="11"/>
     </row>
     <row r="978">
-      <c r="D978" s="13"/>
+      <c r="C978" s="11"/>
     </row>
     <row r="979">
-      <c r="D979" s="13"/>
+      <c r="C979" s="11"/>
     </row>
     <row r="980">
-      <c r="D980" s="13"/>
+      <c r="C980" s="11"/>
     </row>
     <row r="981">
-      <c r="D981" s="13"/>
+      <c r="C981" s="11"/>
     </row>
     <row r="982">
-      <c r="D982" s="13"/>
+      <c r="C982" s="11"/>
     </row>
     <row r="983">
-      <c r="D983" s="13"/>
+      <c r="C983" s="11"/>
     </row>
     <row r="984">
-      <c r="D984" s="13"/>
+      <c r="C984" s="11"/>
     </row>
     <row r="985">
-      <c r="D985" s="13"/>
+      <c r="C985" s="11"/>
     </row>
     <row r="986">
-      <c r="D986" s="13"/>
+      <c r="C986" s="11"/>
     </row>
     <row r="987">
-      <c r="D987" s="13"/>
+      <c r="C987" s="11"/>
     </row>
     <row r="988">
-      <c r="D988" s="13"/>
+      <c r="C988" s="11"/>
     </row>
     <row r="989">
-      <c r="D989" s="13"/>
+      <c r="C989" s="11"/>
     </row>
     <row r="990">
-      <c r="D990" s="13"/>
+      <c r="C990" s="11"/>
     </row>
     <row r="991">
-      <c r="D991" s="13"/>
+      <c r="C991" s="11"/>
     </row>
     <row r="992">
-      <c r="D992" s="13"/>
+      <c r="C992" s="11"/>
     </row>
     <row r="993">
-      <c r="D993" s="13"/>
+      <c r="C993" s="11"/>
     </row>
     <row r="994">
-      <c r="D994" s="13"/>
+      <c r="C994" s="11"/>
     </row>
     <row r="995">
-      <c r="D995" s="13"/>
+      <c r="C995" s="11"/>
     </row>
     <row r="996">
-      <c r="D996" s="13"/>
-    </row>
-    <row r="997">
-      <c r="D997" s="13"/>
-    </row>
-    <row r="998">
-      <c r="D998" s="13"/>
-    </row>
-    <row r="999">
-      <c r="D999" s="13"/>
-    </row>
-    <row r="1000">
-      <c r="D1000" s="13"/>
+      <c r="C996" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C25"/>
-    <hyperlink r:id="rId2" ref="C33"/>
-    <hyperlink r:id="rId3" ref="C34"/>
-    <hyperlink r:id="rId4" ref="C35"/>
-    <hyperlink r:id="rId5" ref="C37"/>
-  </hyperlinks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>